--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D0BAA-AD67-4E04-905A-49BB55939BC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>TestA</t>
   </si>
@@ -85,13 +86,70 @@
   </si>
   <si>
     <t>qa</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>neil@peter.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>aneel@x.com</t>
+  </si>
+  <si>
+    <t>Unsuccessfull</t>
+  </si>
+  <si>
+    <t>qa@x.com</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Verify that, system allows to login with valid Credentials</t>
+  </si>
+  <si>
+    <t>Verify that, system does not allow to login with Invalid Credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +160,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,16 +202,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,139 +496,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="60.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>90</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{52DE1497-1054-4CAC-953A-0AE7690B462C}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{04C047C2-6EA7-4410-8787-EA880E621D47}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{41B5162F-8DBD-4F63-8B34-33DEFA5BC193}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{5E6938D3-4D9F-4430-97A8-957640E6587D}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{ADCC7E82-DD1E-4492-9D4B-3917B445883A}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{4F8533C8-FA8D-4D14-B71B-A8606F69451B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424D0BAA-AD67-4E04-905A-49BB55939BC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>TestA</t>
   </si>
@@ -94,9 +93,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -106,9 +102,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>neil@peter.com</t>
   </si>
   <si>
@@ -116,9 +109,6 @@
   </si>
   <si>
     <t>Success</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>N</t>
@@ -148,11 +138,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,18 +202,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,36 +494,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="60.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="2"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -550,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -564,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -578,17 +577,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -619,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -636,103 +636,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{52DE1497-1054-4CAC-953A-0AE7690B462C}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{04C047C2-6EA7-4410-8787-EA880E621D47}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{41B5162F-8DBD-4F63-8B34-33DEFA5BC193}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{5E6938D3-4D9F-4430-97A8-957640E6587D}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{ADCC7E82-DD1E-4492-9D4B-3917B445883A}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{4F8533C8-FA8D-4D14-B71B-A8606F69451B}"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="D14" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="C16" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED275980-008C-4749-9AC2-0CCF62C19199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Suits" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>TestA</t>
   </si>
@@ -133,12 +135,21 @@
   </si>
   <si>
     <t>Verify that, system does not allow to login with Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Suite Name</t>
+  </si>
+  <si>
+    <t>LoginSuit</t>
+  </si>
+  <si>
+    <t>AsthmaTrackerSuit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -199,12 +210,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,6 +240,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,31 +522,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C14025C-CEBF-40FF-914D-4EDCC0CB28E9}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -535,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -563,7 +698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -577,12 +712,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -602,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -619,7 +754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -636,12 +771,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -658,7 +793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -675,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -692,7 +827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -711,12 +846,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="D14" r:id="rId2"/>
-    <hyperlink ref="C15" r:id="rId3"/>
-    <hyperlink ref="D15" r:id="rId4"/>
-    <hyperlink ref="C16" r:id="rId5"/>
-    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED275980-008C-4749-9AC2-0CCF62C19199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>TestA</t>
   </si>
@@ -140,17 +139,29 @@
     <t>Suite Name</t>
   </si>
   <si>
-    <t>LoginSuit</t>
-  </si>
-  <si>
-    <t>AsthmaTrackerSuit</t>
+    <t>LoginSuite</t>
+  </si>
+  <si>
+    <t>AsthmaTrackerSuite</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +188,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -240,8 +258,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,20 +543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C14025C-CEBF-40FF-914D-4EDCC0CB28E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -543,85 +565,85 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,229 +651,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>90</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75692F83-5EF9-4BCF-955F-B7F6C2539D81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>TestA</t>
   </si>
@@ -124,9 +125,6 @@
     <t>Unsuccessfull</t>
   </si>
   <si>
-    <t>qa@x.com</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -152,15 +150,12 @@
   </si>
   <si>
     <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,6 +258,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,105 +539,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="28.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
     </row>
@@ -651,40 +647,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="15.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -696,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -710,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -724,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -738,20 +734,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -766,7 +762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -783,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -800,20 +796,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
@@ -825,15 +821,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
@@ -841,19 +837,19 @@
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>32</v>
@@ -865,36 +861,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
-    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75692F83-5EF9-4BCF-955F-B7F6C2539D81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1F340-1C88-4B62-903D-5AE67B56EFE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>TestA</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>TC02</t>
+  </si>
+  <si>
+    <t>Test@12</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -650,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +830,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>35</v>
@@ -834,8 +838,8 @@
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>29</v>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C1F340-1C88-4B62-903D-5AE67B56EFE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -158,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,16 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,23 +245,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,107 +539,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -651,232 +647,230 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>90</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D14" r:id="rId1"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDC894-57C1-4D71-ACC4-C3F72FE224E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>TestA</t>
   </si>
@@ -151,13 +152,19 @@
     <t>TC02</t>
   </si>
   <si>
-    <t>Test@12</t>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>aneel@meschinowellness.com</t>
+  </si>
+  <si>
+    <t>Hello789@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,21 +549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -561,7 +571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -569,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -577,67 +587,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
@@ -647,32 +657,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -692,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -706,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
@@ -720,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -734,12 +744,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -762,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
@@ -779,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
@@ -796,12 +806,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -821,11 +831,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -834,18 +844,18 @@
       <c r="D14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>43</v>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -861,18 +871,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{88026155-06FA-421C-AFD5-94753D8AD3CE}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{068724A9-8C45-4689-B5FA-F9E7CCB8AE15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBDC894-57C1-4D71-ACC4-C3F72FE224E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA5E1B-1122-44D5-8D30-7AB18EE150BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>TestA</t>
   </si>
@@ -140,9 +140,6 @@
     <t>LoginSuite</t>
   </si>
   <si>
-    <t>AsthmaTrackerSuite</t>
-  </si>
-  <si>
     <t>TCID</t>
   </si>
   <si>
@@ -159,6 +156,87 @@
   </si>
   <si>
     <t>Hello789@</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Verify that, system does not allow to log BG without valid date</t>
+  </si>
+  <si>
+    <t>Verify that, system does not allow to log BG without BG value</t>
+  </si>
+  <si>
+    <t>Verify that, system does not allow to log BG with value more than 99</t>
+  </si>
+  <si>
+    <t>Verify that, system successfully logs BG with valid values</t>
+  </si>
+  <si>
+    <t>BloodGlucoseTest</t>
+  </si>
+  <si>
+    <t>BloodGlucoseSuite</t>
+  </si>
+  <si>
+    <t>BGLevel</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>10:10 PM</t>
+  </si>
+  <si>
+    <t>Date is required.</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>Level must be less than or equal to 99.</t>
+  </si>
+  <si>
+    <t>Successfully Saved</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Level must be greater than zero.</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Verify that, system successfully logs BG with Current Date and Time</t>
   </si>
 </sst>
 </file>
@@ -252,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +347,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,7 +638,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,16 +660,16 @@
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +759,9 @@
     <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="6"/>
+    <col min="9" max="9" width="33.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -684,7 +771,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -751,7 +838,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -813,7 +900,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>23</v>
@@ -833,7 +920,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>31</v>
@@ -853,7 +940,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>30</v>
@@ -873,7 +960,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>31</v>
@@ -882,14 +969,207 @@
         <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -899,8 +1179,18 @@
     <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D16" r:id="rId5" xr:uid="{88026155-06FA-421C-AFD5-94753D8AD3CE}"/>
     <hyperlink ref="E16" r:id="rId6" xr:uid="{068724A9-8C45-4689-B5FA-F9E7CCB8AE15}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{2944CA42-75C3-4A7E-81D9-43D6FF0A9125}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{A43868D3-74EA-4BFC-A57B-3F1585B4FF67}"/>
+    <hyperlink ref="D21" r:id="rId9" xr:uid="{442CC4CC-D7A2-471A-AB73-BB7BD0804DFF}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{61B3E6B4-2B4F-47AB-B944-0E32D9A2F089}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{0A7C6059-4061-4439-AC0C-2F26F3AEF16D}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{BAA1FDC4-CED2-49F4-8F0B-EC9C12938384}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{1C6BE1A7-1267-4505-A2FE-54CF23DC2AD4}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{45A7C05C-C5D5-4ABA-AEE1-B77C9FB3A80F}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{A849CC75-3419-435F-8DA7-9D6BA4792048}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{0B241F65-E607-4E71-AC6C-C2B3ADB44C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA5E1B-1122-44D5-8D30-7AB18EE150BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09105547-9830-4B08-AAAA-53B503B85D19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>TestA</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Verify that, system successfully logs BG with Current Date and Time</t>
+  </si>
+  <si>
+    <t>BloodGlucoseOnProfile</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Verify that, system updates BG values on Profile page</t>
   </si>
 </sst>
 </file>
@@ -743,10 +752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B20" sqref="B20:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1026,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>50</v>
@@ -1047,7 +1056,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>51</v>
@@ -1077,7 +1086,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>52</v>
@@ -1107,7 +1116,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>71</v>
@@ -1136,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>53</v>
@@ -1170,6 +1179,63 @@
       <c r="F25" s="17"/>
       <c r="G25" s="11"/>
       <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1189,8 +1255,10 @@
     <hyperlink ref="E22" r:id="rId14" xr:uid="{45A7C05C-C5D5-4ABA-AEE1-B77C9FB3A80F}"/>
     <hyperlink ref="E23" r:id="rId15" xr:uid="{A849CC75-3419-435F-8DA7-9D6BA4792048}"/>
     <hyperlink ref="E24" r:id="rId16" xr:uid="{0B241F65-E607-4E71-AC6C-C2B3ADB44C4F}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{FEE19AE8-376D-48D2-B872-BDF3DDB292C0}"/>
+    <hyperlink ref="E28" r:id="rId18" xr:uid="{E3FEB062-74A8-4B8B-83D4-798807E5EAB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09105547-9830-4B08-AAAA-53B503B85D19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1249A7-E329-4C42-897F-49A4A156D145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>TestA</t>
   </si>
@@ -215,24 +215,12 @@
     <t>Successfully Saved</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Level must be greater than zero.</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -246,6 +234,21 @@
   </si>
   <si>
     <t>Verify that, system updates BG values on Profile page</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +935,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
@@ -972,7 +975,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>35</v>
@@ -1038,10 +1041,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>59</v>
@@ -1068,7 +1071,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>61</v>
@@ -1077,7 +1080,7 @@
         <v>59</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J21" s="11"/>
     </row>
@@ -1098,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>61</v>
@@ -1119,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>27</v>
@@ -1128,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>63</v>
@@ -1157,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>61</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1213,13 +1216,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>27</v>
@@ -1228,13 +1231,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1249A7-E329-4C42-897F-49A4A156D145}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC578F4-87D6-4DC6-8781-D58BE2D2D5BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>TestA</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>50.00</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Blood Glucose Tracker</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,6 +1219,9 @@
       <c r="H27" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="I27" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
@@ -1238,6 +1247,9 @@
       </c>
       <c r="H28" s="16" t="s">
         <v>66</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC578F4-87D6-4DC6-8781-D58BE2D2D5BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A994AF2-C69E-4D6F-B7CF-7B41C3DC7D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,73 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
-  <si>
-    <t>TestA</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex </t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>TestB</t>
-  </si>
-  <si>
-    <t>Aneel</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>BPO</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Sheena</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Kitchener</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>qa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>LoginTest</t>
   </si>
@@ -170,9 +104,6 @@
     <t>TC07</t>
   </si>
   <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>Verify that, system does not allow to log BG without valid date</t>
   </si>
   <si>
@@ -182,9 +113,6 @@
     <t>Verify that, system does not allow to log BG with value more than 99</t>
   </si>
   <si>
-    <t>Verify that, system successfully logs BG with valid values</t>
-  </si>
-  <si>
     <t>BloodGlucoseTest</t>
   </si>
   <si>
@@ -248,13 +176,22 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>Blood Glucose Tracker</t>
+  </si>
+  <si>
+    <t>BloodGlucoseDeleteLogs</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>No record found.</t>
+  </si>
+  <si>
+    <t>Verify that, system successfully deletes Blood Glucose logs from Tracker</t>
   </si>
 </sst>
 </file>
@@ -668,26 +605,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -761,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,501 +714,415 @@
     <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
-        <v>90</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="I8" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="H20" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{88026155-06FA-421C-AFD5-94753D8AD3CE}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{068724A9-8C45-4689-B5FA-F9E7CCB8AE15}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{2944CA42-75C3-4A7E-81D9-43D6FF0A9125}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{A43868D3-74EA-4BFC-A57B-3F1585B4FF67}"/>
-    <hyperlink ref="D21" r:id="rId9" xr:uid="{442CC4CC-D7A2-471A-AB73-BB7BD0804DFF}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{61B3E6B4-2B4F-47AB-B944-0E32D9A2F089}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{0A7C6059-4061-4439-AC0C-2F26F3AEF16D}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{BAA1FDC4-CED2-49F4-8F0B-EC9C12938384}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{1C6BE1A7-1267-4505-A2FE-54CF23DC2AD4}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{45A7C05C-C5D5-4ABA-AEE1-B77C9FB3A80F}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{A849CC75-3419-435F-8DA7-9D6BA4792048}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{0B241F65-E607-4E71-AC6C-C2B3ADB44C4F}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{FEE19AE8-376D-48D2-B872-BDF3DDB292C0}"/>
-    <hyperlink ref="E28" r:id="rId18" xr:uid="{E3FEB062-74A8-4B8B-83D4-798807E5EAB7}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{88026155-06FA-421C-AFD5-94753D8AD3CE}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{068724A9-8C45-4689-B5FA-F9E7CCB8AE15}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{2944CA42-75C3-4A7E-81D9-43D6FF0A9125}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{A43868D3-74EA-4BFC-A57B-3F1585B4FF67}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{442CC4CC-D7A2-471A-AB73-BB7BD0804DFF}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{61B3E6B4-2B4F-47AB-B944-0E32D9A2F089}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{0A7C6059-4061-4439-AC0C-2F26F3AEF16D}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{1C6BE1A7-1267-4505-A2FE-54CF23DC2AD4}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{45A7C05C-C5D5-4ABA-AEE1-B77C9FB3A80F}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{A849CC75-3419-435F-8DA7-9D6BA4792048}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{FEE19AE8-376D-48D2-B872-BDF3DDB292C0}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{E3FEB062-74A8-4B8B-83D4-798807E5EAB7}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{0B6BB9FB-FE49-4D85-8F05-699336F15141}"/>
+    <hyperlink ref="E16" r:id="rId18" xr:uid="{DC27674D-CD5B-4EDE-A219-7292CFB48C26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A994AF2-C69E-4D6F-B7CF-7B41C3DC7D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8989983-1AC2-4CA3-AB32-8BB552DD8879}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
     <sheet name="Test" sheetId="1" r:id="rId2"/>
+    <sheet name="dropdowns" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="694">
   <si>
     <t>LoginTest</t>
   </si>
@@ -192,13 +196,1924 @@
   </si>
   <si>
     <t>Verify that, system successfully deletes Blood Glucose logs from Tracker</t>
+  </si>
+  <si>
+    <t>MyHRALog</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Verify that, system logs HRA</t>
+  </si>
+  <si>
+    <t>1.Please select your weight in pounds from the drop-down menu.</t>
+  </si>
+  <si>
+    <t>2.Please select your waist circumference in inches from the drop-down menu.</t>
+  </si>
+  <si>
+    <t>3.On average, how often do you eat any of the following foods? ·   Ground beef, Steak, Hamburger, any other type of Beef ·   High fat Luncheon meats (e.g., salami, bologna, hot dogs) ·   Bacon, Spare ribs, Sausage or any other pork products ·   Chicken wings</t>
+  </si>
+  <si>
+    <t>4.How often do you consume any of the following foods? ·   Cheeses with greater than 20% Milk Fat (MF), e.g., cheddar, mozzarella, Monterey Jack, brick, cream cheese, parmesan ·   Homogenized milk ·   Yogurt that is more than 1% MF ·   Regular Ice cream</t>
+  </si>
+  <si>
+    <t>5.How often do you use cream in your coffee or tea?</t>
+  </si>
+  <si>
+    <t>6.How often do you use butter on bread products such as toast, bagels?</t>
+  </si>
+  <si>
+    <t>7.How often do you use butter for cooking or on baked potatoes or vegetables?</t>
+  </si>
+  <si>
+    <t>8.Do you use regular sour cream or high saturated fat salad dressings (e.g., French, Thousand Islands, etc.) more than once per week?</t>
+  </si>
+  <si>
+    <t>9.What is your weekly whole egg consumption on average?</t>
+  </si>
+  <si>
+    <t>10.How often do you eat fried foods? (deep-fried or pan-fried)</t>
+  </si>
+  <si>
+    <t>11.Do you choose poultry or fish in place of red meat, pork or fried foods in most situations?</t>
+  </si>
+  <si>
+    <t>12.Are you a vegetarian or near vegetarian?</t>
+  </si>
+  <si>
+    <t>13.How often do you consume any of the following? ·   2% milk ·   Margarine ·   Yogurt that is 2% MF ·   Low-fat sour cream</t>
+  </si>
+  <si>
+    <t>14.How often do you consume any of the following foods? ·     Pastries such as cakes, donuts, croissants, turnovers, cookies (3 or more) ·     Non low-fat muffins ·     Rich desserts ·     Premium ice cream</t>
+  </si>
+  <si>
+    <t>15.How often do you consume any high-fat snack foods? (e.g., potato chips, nachos, any type of fried chips, cheesies, regular chocolate bars, other chocolate treats, etc.)</t>
+  </si>
+  <si>
+    <t>16.How often do you consume sugary carbohydrate snacks &amp; drinks? ·   Regular soft drinks ·   Licorice, jujubes, hard candies, gummy bears ·   Sweet, refined breakfast cereals, rice crispy squares</t>
+  </si>
+  <si>
+    <t>17.On average, how many servings of garden vegetables do you consume on a daily basis? (e.g., carrots, tomatoes, broccoli, cauliflower, peppers, romaine lettuce, spinach, collard greens, kale, etc.)</t>
+  </si>
+  <si>
+    <t>18.On average, how many servings per day do you consume of any starchy carbohydrate foods, such as pasta, rice, beans, peas, corn, oatmeal, etc.?</t>
+  </si>
+  <si>
+    <t>19.On average, how many servings of fruit do you have per day? Note: 1 serving = 1 whole fruit (e.g., apple, orange, peach), ½ cup chopped fruit (e.g., fruit salad), 8 oz. fruit juice</t>
+  </si>
+  <si>
+    <t>20.How many alcoholic drinks do you have in typical day? Note: One drink equals: ·      341 mL/12 oz (1 bottle) of beer or regular strength beer (5% alcohol) ·      142 mL/5 oz wine (12% alcohol) ·      43 mL/1-½ oz spirits (40% alcohol) ·      3 oz sherry or port</t>
+  </si>
+  <si>
+    <t>21.Is there any day of the week, for instance on the weekend, where you have 4 or more drinks in one day?</t>
+  </si>
+  <si>
+    <t>22.Regarding the question above, how many times per month, on average, would you consume 4 or more drinks in one day?</t>
+  </si>
+  <si>
+    <t>23.How often, on average, do you consume any food or drinks containing high amounts of artificial sweeteners and/or food additives, colours, artifical flavours? Examples of these food/drink items: diet and regular soft drinks, potato chips, nachos, cheesies, corn chips, licorice, jujubes, gummy bears, gelatins, ice cream, fruit ices, sherbet, rice crispy squares, granola bars, or other similar types of snacks.</t>
+  </si>
+  <si>
+    <t>24.Do you take a multiple vitamin and mineral supplement daily?</t>
+  </si>
+  <si>
+    <t>25.Your doctor has informed you that you have heart trouble or a heart condition of some kind?</t>
+  </si>
+  <si>
+    <t>26.You frequently have pain in your chest or have had chest pain recently?</t>
+  </si>
+  <si>
+    <t>27.You often feel faint or have spells of severe dizziness that are not caused by an inner ear condition?</t>
+  </si>
+  <si>
+    <t>28.You have been informed that you have high blood pressure?</t>
+  </si>
+  <si>
+    <t>29.How many minutes a week do you perform endurance/aerobic activity that makes your heart beat faster than normal, causes you to sweat a little or breathe faster?</t>
+  </si>
+  <si>
+    <t>30.Resistance Exercise, such as weight lifting/resistance training?</t>
+  </si>
+  <si>
+    <t>31.Flexibility and stretching exercise such as yoga, Pilates, formal stretching program?</t>
+  </si>
+  <si>
+    <t>32.Do you eat fewer than 5 fruit and vegetable servings per day, on average?</t>
+  </si>
+  <si>
+    <t>33.Do you often experience a scaly, flaky, seborrheic condition at the outer nose margins above the lips?</t>
+  </si>
+  <si>
+    <t>34.Do you have soft nails or do they chip, crack or peel easily, and/or are brittle or contain ridges (not smooth)?</t>
+  </si>
+  <si>
+    <t>35.Are there white spots on your fingernails?</t>
+  </si>
+  <si>
+    <t>36.Have you noticed many small red spots on your skin?</t>
+  </si>
+  <si>
+    <t>37.Do you drink more than two cups of coffee or caffeinated tea (of any kind) per day, on average?</t>
+  </si>
+  <si>
+    <t>38.What is your current smoking status?</t>
+  </si>
+  <si>
+    <t>39.How long have you smoked, in years?</t>
+  </si>
+  <si>
+    <t>40.How many cigarettes do you smoke per day, on average?</t>
+  </si>
+  <si>
+    <t>41.Which of the following describes your feelings about smoking?</t>
+  </si>
+  <si>
+    <t>42.As an ex-smoker, how many years did you smoke?</t>
+  </si>
+  <si>
+    <t>43.As an ex-smoker, how long ago did you smoke?</t>
+  </si>
+  <si>
+    <t>44.As an ex-smoker, how many cigarettes did you smoke per day, on average?</t>
+  </si>
+  <si>
+    <t>45.Has your skin been damaged by sunlight and/or do you use a tanning bed more than once per month?</t>
+  </si>
+  <si>
+    <t>46.Do you often experience cracks at the corners of your lips?</t>
+  </si>
+  <si>
+    <t>47.Do you often experience a sore or burning tongue?</t>
+  </si>
+  <si>
+    <t>48.Have you experienced a reduced ability to taste food?</t>
+  </si>
+  <si>
+    <t>49.Do your gums bleed easily?</t>
+  </si>
+  <si>
+    <t>50.Do you bruise easily?</t>
+  </si>
+  <si>
+    <t>51.Are you a slow healer from bruises and cuts?</t>
+  </si>
+  <si>
+    <t>52.Do you feel chronically tired?</t>
+  </si>
+  <si>
+    <t>53.Do you have irregular or erratic eating patterns?</t>
+  </si>
+  <si>
+    <t>54.Are you on a weight loss or calorie restricted diet?</t>
+  </si>
+  <si>
+    <t>55.Do you feel run down and/or are you experiencing a weakened state of immunity? (e.g., frequent colds, sore throat, or known to have an immune-compromised state)</t>
+  </si>
+  <si>
+    <t>56.Does your hair fall out easily, and/or is it dry and brittle and/or does it lack optimal luster and sheen?</t>
+  </si>
+  <si>
+    <t>57.Laxatives?</t>
+  </si>
+  <si>
+    <t>58.Antacids?</t>
+  </si>
+  <si>
+    <t>59.Pain-killers / Anti-inflammatories? (ASA- Acetylsalicylic acid, etc.)</t>
+  </si>
+  <si>
+    <t>60.Do you regularly take any prescription medications?</t>
+  </si>
+  <si>
+    <t>61.Barbiturates?</t>
+  </si>
+  <si>
+    <t>62.Antidepressants?</t>
+  </si>
+  <si>
+    <t>63.Amphetamines?</t>
+  </si>
+  <si>
+    <t>64.Anti-convulsant phenytoin drugs?</t>
+  </si>
+  <si>
+    <t>65.Antibiotics?</t>
+  </si>
+  <si>
+    <t>66.Cholesterol-lowering Bile Acid Sequestrant drugs?</t>
+  </si>
+  <si>
+    <t>67.Cholesterol-lowering Statin Drugs?</t>
+  </si>
+  <si>
+    <t>68.ACE-inhibitors? (usually prescribed for high blood pressure or diabetics)</t>
+  </si>
+  <si>
+    <t>69.Beta-blockers? (often prescribed for high blood pressure and arrhythmia)</t>
+  </si>
+  <si>
+    <t>70.Digitalis?</t>
+  </si>
+  <si>
+    <t>71.Corticosteroids?</t>
+  </si>
+  <si>
+    <t>72.Indomethacin?</t>
+  </si>
+  <si>
+    <t>73.Diuretics?</t>
+  </si>
+  <si>
+    <t>74.Specific drug for Gout?</t>
+  </si>
+  <si>
+    <t>75.L-dopa for Parkinson’s disease?</t>
+  </si>
+  <si>
+    <t>76.Theophylline?</t>
+  </si>
+  <si>
+    <t>77.Have you been diagnosed with high cholesterol?</t>
+  </si>
+  <si>
+    <t>78.What is your Total Cholesterol level?</t>
+  </si>
+  <si>
+    <t>79.What is your LDL-Cholesterol level?</t>
+  </si>
+  <si>
+    <t>80.What is your HDL-Cholesterol level?</t>
+  </si>
+  <si>
+    <t>81.Do you have a history of heart disease?</t>
+  </si>
+  <si>
+    <t>82.Have you had a previous heart attack?</t>
+  </si>
+  <si>
+    <t>83.Have you had a previous stroke?</t>
+  </si>
+  <si>
+    <t>84.Do you have high triglyceride levels?</t>
+  </si>
+  <si>
+    <t>85.Do you have high blood pressure?</t>
+  </si>
+  <si>
+    <t>86.What is your current Blood Pressure reading?</t>
+  </si>
+  <si>
+    <t>87.Have you been diagnosed with Atrial Fibrillation?</t>
+  </si>
+  <si>
+    <t>88.Prostate cancer?</t>
+  </si>
+  <si>
+    <t>89.Colon or rectal cancer?</t>
+  </si>
+  <si>
+    <t>90.Diagnosed with any other cancer?</t>
+  </si>
+  <si>
+    <t>91.Leukoplakia (precancerous condition of the mouth)?</t>
+  </si>
+  <si>
+    <t>92.Are you interested in knowing about scientifically-based nutrition, lifestyle and supplementation practices that can lower your risk of cancer, in general?</t>
+  </si>
+  <si>
+    <t>93.Stomach or intestinal ulcers?</t>
+  </si>
+  <si>
+    <t>94.Irritable bowel syndrome?</t>
+  </si>
+  <si>
+    <t>95.Crohn’s Disease?</t>
+  </si>
+  <si>
+    <t>96.Ulcerative Colitis?</t>
+  </si>
+  <si>
+    <t>97.Bloating or frequent indigestion after meals?</t>
+  </si>
+  <si>
+    <t>98.Heartburn, gastritis or GERD (gastroesophageal reflux disease)?</t>
+  </si>
+  <si>
+    <t>99.Diverticulitis or Diverticulosis (Diverticular Disease)</t>
+  </si>
+  <si>
+    <t>100.Celiac disease?</t>
+  </si>
+  <si>
+    <t>101.Pancreatitis?</t>
+  </si>
+  <si>
+    <t>102.Do you tend to have dry skin?</t>
+  </si>
+  <si>
+    <t>103.Do you have little bumpy lesions on the back of your elbows or along your forearms, skin, or on your back?</t>
+  </si>
+  <si>
+    <t>104.Acne?</t>
+  </si>
+  <si>
+    <t>105.Eczema?</t>
+  </si>
+  <si>
+    <t>106.Rosacea?</t>
+  </si>
+  <si>
+    <t>107.Is your skin frequently exposed to direct sunlight and/or do you use a tanning bed more than once a month?</t>
+  </si>
+  <si>
+    <t>108.Toenail or fingernail fungus?</t>
+  </si>
+  <si>
+    <t>109.Do you have dark circles under your eyes, have irregular pigmentation, and/or have a dull or poor complexion?</t>
+  </si>
+  <si>
+    <t>110.Warts?</t>
+  </si>
+  <si>
+    <t>111.Seborrhea or Seborrheic Dermatitis?</t>
+  </si>
+  <si>
+    <t>112.Are you interested in knowing about ingestible and topical nutrients proven to slow and/or reverse wrinkles and skin aging?</t>
+  </si>
+  <si>
+    <t>113.Non-insulin dependent diabetic or have been diagnosed as a pre-diabetic?</t>
+  </si>
+  <si>
+    <t>114.What is your blood glucose level?</t>
+  </si>
+  <si>
+    <t>115.Insulin-dependent diabetes?</t>
+  </si>
+  <si>
+    <t>116.Underactive thyroid (low thyroid function) and/or have desire to boost thyroid function through nutritional supplementation?</t>
+  </si>
+  <si>
+    <t>117.Osteoporosis or osteopenia?</t>
+  </si>
+  <si>
+    <t>118.Osteoarthritis or degenerative arthritis?</t>
+  </si>
+  <si>
+    <t>119.Rheumatoid arthritis, ankylosing spondylitis, lupus, Reiter’s syndrome or any other rheumatic condition causing joint inflammation?</t>
+  </si>
+  <si>
+    <t>120.Multiple Sclerosis?</t>
+  </si>
+  <si>
+    <t>121.Parkinson’s disease?</t>
+  </si>
+  <si>
+    <t>122.Gout?</t>
+  </si>
+  <si>
+    <t>123.Chronic hepatitis, cirrhosis or history of liver infection?</t>
+  </si>
+  <si>
+    <t>124. Hayfever or seasonal allergies due to pollen?</t>
+  </si>
+  <si>
+    <t>125.Chronic bronchitis, bronchial asthma or chronic sinusitis?</t>
+  </si>
+  <si>
+    <t>126.Presently have cataracts?</t>
+  </si>
+  <si>
+    <t>127.Macular degeneration of the eye?</t>
+  </si>
+  <si>
+    <t>128.Chronic fatigue syndrome, Epstein-Barr or chronic mononucleosis?</t>
+  </si>
+  <si>
+    <t>129.Currently have fibromyalgia?</t>
+  </si>
+  <si>
+    <t>130.Varicose veins or chronic venous insufficiency?</t>
+  </si>
+  <si>
+    <t>131.Frequent constipation?</t>
+  </si>
+  <si>
+    <t>132.Scleroderma?</t>
+  </si>
+  <si>
+    <t>133.Sarcoidosis?</t>
+  </si>
+  <si>
+    <t>134.Do you presently have tendonitis, bursitis or muscle inflammation pain?</t>
+  </si>
+  <si>
+    <t>135.Raynaud’s syndrome (disease)?</t>
+  </si>
+  <si>
+    <t>136.Restless Leg Syndrome?</t>
+  </si>
+  <si>
+    <t>137.Tardive dyskinesia?</t>
+  </si>
+  <si>
+    <t>138.Ever been diagnosed with Central Serous Retinopathy?</t>
+  </si>
+  <si>
+    <t>139.Chronic Kidney Disease (Chronic Renal Failure)?</t>
+  </si>
+  <si>
+    <t>140.Ever been diagnosed with a fatty liver problem from being overweight, excess alcohol consumption or from diabetes?</t>
+  </si>
+  <si>
+    <t>141.Personal history of Retinal Tears?</t>
+  </si>
+  <si>
+    <t>142.Ever been diagnosed with post-concussion syndrome?</t>
+  </si>
+  <si>
+    <t>143.Peripheral Neuropathy from Diabetes, Chemotherapy or a Nerve Injury?</t>
+  </si>
+  <si>
+    <t>144.Insomnia and/or interrupted sleep due to night time pain?</t>
+  </si>
+  <si>
+    <t>145.Migraine headaches?</t>
+  </si>
+  <si>
+    <t>146.Ever been diagnosed with liver damage from using a prescription drug, over-the-counter drug or street drug, or from exposure to a liver toxin?</t>
+  </si>
+  <si>
+    <t>147.Ever been diagnosed with a kidney stone?</t>
+  </si>
+  <si>
+    <t>148.Intermittent Claudication or Peripheral Vascular Disease?</t>
+  </si>
+  <si>
+    <t>149.Insomnia or interrupted sleep, which is not caused by pain?</t>
+  </si>
+  <si>
+    <t>150.Tested positive for HIV infection?</t>
+  </si>
+  <si>
+    <t>151.Lingering symptoms of Lyme disease that were not managed effectively with antibiotics soon after the initial infection?</t>
+  </si>
+  <si>
+    <t>152.Frequent canker sores, cold sores, chronic shingles or other herpes infections?</t>
+  </si>
+  <si>
+    <t>153.Been diagnosed with Mild Cognitive Dysfunction?</t>
+  </si>
+  <si>
+    <t>154.How many hours do you usually sleep on an average night?</t>
+  </si>
+  <si>
+    <t>155.Do you have trouble either falling or staying asleep?</t>
+  </si>
+  <si>
+    <t>156.Do you have glaucoma?</t>
+  </si>
+  <si>
+    <t>157.Do you have epilepsy?</t>
+  </si>
+  <si>
+    <t>158.Do you suffer from recurrent back pain that limits your work and leisure activities for more than 2 days at a time?</t>
+  </si>
+  <si>
+    <t>159.Do you have Chronic Obstructive Pulmonary Disease (COPD)?</t>
+  </si>
+  <si>
+    <t>160.Do you suffer from chronic or recurrent knee or hip pain?</t>
+  </si>
+  <si>
+    <t>161.Do you suffer from prostate gland enlargement (decreased urine stream, frequent night-time urination)?</t>
+  </si>
+  <si>
+    <t>162.Are you interested in nutrition and supplementation information directed at enhancing sex drive and/or sexual performance capabilities?</t>
+  </si>
+  <si>
+    <t>163.At some point in your life you suffered from anorexia nervosa, bulimia or an eating disorder?</t>
+  </si>
+  <si>
+    <t>164.You have undergone treatment with oral glucocorticosteroid (prednisone, cortisone, etc.) drug for more than 3 months at some time in your life?</t>
+  </si>
+  <si>
+    <t>165.You have been diagnosed with hyperparathyroidism?</t>
+  </si>
+  <si>
+    <t>166.In general, you have poor muscular development and strength?</t>
+  </si>
+  <si>
+    <t>167.You have taken anticonvulsant medication for 5 years or longer at some point in your life?</t>
+  </si>
+  <si>
+    <t>168.You have rheumatoid arthritis or ankylosing spondylitis?</t>
+  </si>
+  <si>
+    <t>169.You take the drug methotrexate (usually for rheumatoid arthritis or cancer)?</t>
+  </si>
+  <si>
+    <t>170.You have had a previous fracture in adult years from minimal trauma or had a previous fracture of a vertebra, wrist, hip or pelvis?</t>
+  </si>
+  <si>
+    <t>171.You are taking thyroid replacement therapy (thyroid hormone)?</t>
+  </si>
+  <si>
+    <t>172.In the last month, have you found you had little interest or pleasure in doing things?</t>
+  </si>
+  <si>
+    <t>173.In the last month have you been feeling down, depressed or hopeless?</t>
+  </si>
+  <si>
+    <t>174.How would you rate your current stress level?</t>
+  </si>
+  <si>
+    <t>175.If you run into problems with your health or other parts of your life, do you have a few friends or family members from whom you can ask for help?</t>
+  </si>
+  <si>
+    <t>176.Are you responsible for the care of another person (such as an aging parent, sick family member or a disabled child/adult)?</t>
+  </si>
+  <si>
+    <t>177.How would you rate your current relationship with your partner?</t>
+  </si>
+  <si>
+    <t>178.How would you rate your current friendships and relationships?</t>
+  </si>
+  <si>
+    <t>179.Depression?</t>
+  </si>
+  <si>
+    <t>180.Anxiety?</t>
+  </si>
+  <si>
+    <t>181.Bipolar?</t>
+  </si>
+  <si>
+    <t>182.How often do you miss taking your medications(s)?</t>
+  </si>
+  <si>
+    <t>183.Do you sometimes forget to take your pills?</t>
+  </si>
+  <si>
+    <t>184.People sometimes miss taking their medications for reasons other than forgetting. Thinking over the past two weeks, were there any days when you did not take your medicine?</t>
+  </si>
+  <si>
+    <t>185.Have you ever cut back or stopped taking your medication without telling your doctor?</t>
+  </si>
+  <si>
+    <t>186.When you travel or leave home, do you sometimes forget to bring along your medication?</t>
+  </si>
+  <si>
+    <t>187.Did you take your medicine yesterday?</t>
+  </si>
+  <si>
+    <t>188.When you feel like your condition is under control, do you sometimes stop taking your medicine?</t>
+  </si>
+  <si>
+    <t>189.Taking medication everyday is a real inconvenience for some people. Do you ever feel hassled about sticking to your treatment plan?</t>
+  </si>
+  <si>
+    <t>190.How often do you have difficulty remembering to take all your medications?</t>
+  </si>
+  <si>
+    <t>191.Which of the following best describes your current approach to nutrition and lifestyle practices related to wellness?</t>
+  </si>
+  <si>
+    <t>192.Do you get a flu shot every year?</t>
+  </si>
+  <si>
+    <t>193.Which of the following best describes your ethnic background?</t>
+  </si>
+  <si>
+    <t>194.To what degree does your current health status compromise your quality of life and/or your ability to participate in desired recreational activities?</t>
+  </si>
+  <si>
+    <t>195.Have any of your first-degree relatives developed colon cancer?</t>
+  </si>
+  <si>
+    <t>196.Have any of your first-degree relatives developed prostate cancer?</t>
+  </si>
+  <si>
+    <t>197.Have any of your first-degree relatives developed dementia or Alzheimer’s disease?</t>
+  </si>
+  <si>
+    <t>198.Have any of your first-degree relatives developed Parkinson’s disease?</t>
+  </si>
+  <si>
+    <t>199.Have any of your first-degree relatives suffered a heart attack before age 60?</t>
+  </si>
+  <si>
+    <t>200.Have you ever had an allergic reaction to a vitamin supplement in the past?</t>
+  </si>
+  <si>
+    <t>201.Do you suffer from a hemolytic anemia due to glucose-6 phosphate dehydrogenase deficiency?</t>
+  </si>
+  <si>
+    <t>202.Do you suffer from kidney failure or are you currently receiving dialysis treatment?</t>
+  </si>
+  <si>
+    <t>203.Do you have Wilson’s disease?</t>
+  </si>
+  <si>
+    <t>204.Do you have hemochromatosis?</t>
+  </si>
+  <si>
+    <t>205.Have you ever received a liver, kidney, heart or lung transplant?</t>
+  </si>
+  <si>
+    <t>206.Are you taking an immuno-suppressive drug (i.e., Azathioprine, Cyclosporine, Methotrexate)?</t>
+  </si>
+  <si>
+    <t>207.Have you ever been diagnosed with Chrohn’s Disease or Ulcerative Colitis?</t>
+  </si>
+  <si>
+    <t>208.Are you an insulin-dependent diabetic?</t>
+  </si>
+  <si>
+    <t>209.Do you have only one functioning kidney (due to one kidney being removed or one kidney known to be non-functional?</t>
+  </si>
+  <si>
+    <t>210.Are you taking the drug digitalis or digoxin?</t>
+  </si>
+  <si>
+    <t>211.Do you have an active ulcer?</t>
+  </si>
+  <si>
+    <t>212.Are you presently taking any anti-inflammatory drugs, other than acetaminophen or blood thinners (anti-coagulants)?</t>
+  </si>
+  <si>
+    <t>213.Do you have pacemaker?</t>
+  </si>
+  <si>
+    <t>214.Are you taking drugs to correct a heart arrhythmia problem?</t>
+  </si>
+  <si>
+    <t>215.Are you taking any medications for Alzheimer’s or dementia?</t>
+  </si>
+  <si>
+    <t>216.Are you allergic to aspirin?</t>
+  </si>
+  <si>
+    <t>217.Do you suffer from hemophilia?</t>
+  </si>
+  <si>
+    <t>218.Are you presently experiencing a flare-up of gout (gouty arthritis)?</t>
+  </si>
+  <si>
+    <t>219.Do you have advanced liver disease?</t>
+  </si>
+  <si>
+    <t>220.Do you suffer from hyperparathyroidism, sarcoidosis, active tuberculosis, silicosis or lymphoma?</t>
+  </si>
+  <si>
+    <t>221.Are you taking a drug called Methotrexate?</t>
+  </si>
+  <si>
+    <t>222.Are you presently taking any chemotherapy drugs or undergoing radiation therapy for the treatment of cancer?</t>
+  </si>
+  <si>
+    <t>223.Are you currently taking any drugs for depression or to treat a psychological disorder of any kind (e.g., bipolar disease, schizophrenia, obsessive-compulsive disorder, etc.)?</t>
+  </si>
+  <si>
+    <t>224.Are you taking the drug accutane (usually for acne)?</t>
+  </si>
+  <si>
+    <t>225.Are you presently taking a narcotic drug (e.g., Percodan, Percocet, Oxycontin, Oxycodone, Morphine, etc.)?</t>
+  </si>
+  <si>
+    <t>226.Are you presently taking an anti-anxiety drug (i.e., benzodiazepine, such as Valium, Ativan, etc.)?</t>
+  </si>
+  <si>
+    <t>227.Are you presently taking a sleep-aid medication (e.g., Sonata, Ambien, etc.)?</t>
+  </si>
+  <si>
+    <t>228.Are you known to be allergic to morphine or opiod-containing drugs?</t>
+  </si>
+  <si>
+    <t>229.Are you taking radioactive iodine to treat thyroid cancer, Grave’s disease or other thyroid disorder?</t>
+  </si>
+  <si>
+    <t>230.Are you a diabetic or do you have known blood sugar regulation problems?</t>
+  </si>
+  <si>
+    <t>231.Are you taking vitamin K-blocking anti-coagulants (e.g., Coumadin, Warfarin, Jantoven, Marevan, Lawarin, Waran, Warfant)?</t>
+  </si>
+  <si>
+    <t>232.Do you have a severe shellfish allergy?</t>
+  </si>
+  <si>
+    <t>1 to 2 times per week</t>
+  </si>
+  <si>
+    <t>Do not use cream in coffee/tea</t>
+  </si>
+  <si>
+    <t>Do not use butter on bread products</t>
+  </si>
+  <si>
+    <t>Do not use butter for cooking or on potatoes/vegetables</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>12 or more eggs per week</t>
+  </si>
+  <si>
+    <t>7 or more times per week</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0 servings/day</t>
+  </si>
+  <si>
+    <t>5 or more servings/day</t>
+  </si>
+  <si>
+    <t>3 or more</t>
+  </si>
+  <si>
+    <t>3 or more times per day</t>
+  </si>
+  <si>
+    <t>0-20 minutes/week</t>
+  </si>
+  <si>
+    <t>0 times per week</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
+  </si>
+  <si>
+    <t>&lt; 1 year</t>
+  </si>
+  <si>
+    <t>&lt; 5</t>
+  </si>
+  <si>
+    <t>I don’t want to quit in the near future</t>
+  </si>
+  <si>
+    <t>&lt; 1 year ago</t>
+  </si>
+  <si>
+    <t>&lt;3.9 mmol/L (&lt;150 mg/dL)</t>
+  </si>
+  <si>
+    <t>&lt; or = 1.8 mmol/L (&lt; or = 69 mg/dL)</t>
+  </si>
+  <si>
+    <t>&lt; 1.42 mmol/L (&lt; 55 mg/dL)</t>
+  </si>
+  <si>
+    <t>&lt;120 Systolic AND &lt;80 Diastolic</t>
+  </si>
+  <si>
+    <t>&lt; 85 mg/dl OR &lt; 4.7 mmol/L</t>
+  </si>
+  <si>
+    <t>=10</t>
+  </si>
+  <si>
+    <t>No stress in my life</t>
+  </si>
+  <si>
+    <t>Lots of tension/stress and very difficult</t>
+  </si>
+  <si>
+    <t>I have very few relationships and prefer to spend my time alone</t>
+  </si>
+  <si>
+    <t>Miss sometimes</t>
+  </si>
+  <si>
+    <t>Once in a while</t>
+  </si>
+  <si>
+    <t>I have no plans to improve my nutrition and/or health behaviours presently</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>My health status does not compromise these things.</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +2151,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +2186,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,12 +2215,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,8 +2273,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -325,6 +2308,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Test_Suites"/>
+      <sheetName val="LearnAndEarn"/>
+      <sheetName val="AsthmaTracker"/>
+      <sheetName val="WeightTracker"/>
+      <sheetName val="BloodGlucoseTracker"/>
+      <sheetName val="BloodPressureTracker"/>
+      <sheetName val="LoginTest"/>
+      <sheetName val="CholesterolTracker"/>
+      <sheetName val="MyHraMale"/>
+      <sheetName val="MyHraFemale"/>
+      <sheetName val="MyHraDropdowns"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:ID24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,12 +2727,237 @@
     <col min="3" max="3" width="60.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="43.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="6"/>
+    <col min="6" max="6" width="57.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="56.77734375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="83" style="6" customWidth="1"/>
+    <col min="10" max="10" width="48.44140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="38" style="6" customWidth="1"/>
+    <col min="13" max="13" width="52.44140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="46.44140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="35.88671875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="37.88671875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="35.5546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="59.88671875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="68.33203125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="76" style="6" customWidth="1"/>
+    <col min="21" max="21" width="88" style="6" customWidth="1"/>
+    <col min="22" max="22" width="83.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="65.5546875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="70.109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="80" style="6" customWidth="1"/>
+    <col min="26" max="26" width="79.77734375" style="6" customWidth="1"/>
+    <col min="27" max="27" width="54.21875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="126.44140625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="59" style="6" customWidth="1"/>
+    <col min="30" max="30" width="57.33203125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="49.109375" style="6" customWidth="1"/>
+    <col min="32" max="32" width="45.21875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="58.77734375" style="6" customWidth="1"/>
+    <col min="34" max="34" width="68.44140625" style="6" customWidth="1"/>
+    <col min="35" max="35" width="51" style="6" customWidth="1"/>
+    <col min="36" max="36" width="47.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="37.77734375" style="6" customWidth="1"/>
+    <col min="38" max="38" width="47.109375" style="6" customWidth="1"/>
+    <col min="39" max="39" width="34" style="6" customWidth="1"/>
+    <col min="40" max="40" width="28.109375" style="6" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="6" customWidth="1"/>
+    <col min="42" max="42" width="29.21875" style="6" customWidth="1"/>
+    <col min="43" max="43" width="34.77734375" style="6" customWidth="1"/>
+    <col min="44" max="44" width="39.5546875" style="6" customWidth="1"/>
+    <col min="45" max="45" width="43.5546875" style="6" customWidth="1"/>
+    <col min="46" max="46" width="36.77734375" style="6" customWidth="1"/>
+    <col min="47" max="47" width="42" style="6" customWidth="1"/>
+    <col min="48" max="48" width="39.109375" style="6" customWidth="1"/>
+    <col min="49" max="49" width="39.77734375" style="6" customWidth="1"/>
+    <col min="50" max="50" width="44.21875" style="6" customWidth="1"/>
+    <col min="51" max="51" width="33.44140625" style="6" customWidth="1"/>
+    <col min="52" max="52" width="29.109375" style="6" customWidth="1"/>
+    <col min="53" max="53" width="32.88671875" style="6" customWidth="1"/>
+    <col min="54" max="54" width="32.5546875" style="6" customWidth="1"/>
+    <col min="55" max="55" width="31.77734375" style="6" customWidth="1"/>
+    <col min="56" max="56" width="30.88671875" style="6" customWidth="1"/>
+    <col min="57" max="57" width="32.21875" style="6" customWidth="1"/>
+    <col min="58" max="58" width="32.6640625" style="6" customWidth="1"/>
+    <col min="59" max="59" width="37.77734375" style="6" customWidth="1"/>
+    <col min="60" max="60" width="63.44140625" style="6" customWidth="1"/>
+    <col min="61" max="61" width="49.77734375" style="6" customWidth="1"/>
+    <col min="62" max="62" width="27" style="6" customWidth="1"/>
+    <col min="63" max="63" width="32.21875" style="6" customWidth="1"/>
+    <col min="64" max="64" width="49.33203125" style="6" customWidth="1"/>
+    <col min="65" max="65" width="28" style="6" customWidth="1"/>
+    <col min="66" max="66" width="36.5546875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="28.109375" style="6" customWidth="1"/>
+    <col min="68" max="68" width="30.88671875" style="6" customWidth="1"/>
+    <col min="69" max="69" width="25.6640625" style="6" customWidth="1"/>
+    <col min="70" max="70" width="29.44140625" style="6" customWidth="1"/>
+    <col min="71" max="71" width="27.88671875" style="6" customWidth="1"/>
+    <col min="72" max="72" width="37.109375" style="6" customWidth="1"/>
+    <col min="73" max="73" width="39.5546875" style="6" customWidth="1"/>
+    <col min="74" max="74" width="40.109375" style="6" customWidth="1"/>
+    <col min="75" max="75" width="26.77734375" style="6" customWidth="1"/>
+    <col min="76" max="76" width="43.21875" style="6" customWidth="1"/>
+    <col min="77" max="77" width="30.5546875" style="6" customWidth="1"/>
+    <col min="78" max="78" width="45.6640625" style="6" customWidth="1"/>
+    <col min="79" max="79" width="28.77734375" style="6" customWidth="1"/>
+    <col min="80" max="80" width="40.77734375" style="6" customWidth="1"/>
+    <col min="81" max="81" width="42.5546875" style="6" customWidth="1"/>
+    <col min="82" max="82" width="32" style="6" customWidth="1"/>
+    <col min="83" max="83" width="33.33203125" style="6" customWidth="1"/>
+    <col min="84" max="84" width="40.6640625" style="6" customWidth="1"/>
+    <col min="85" max="85" width="38.77734375" style="6" customWidth="1"/>
+    <col min="86" max="86" width="36.33203125" style="6" customWidth="1"/>
+    <col min="87" max="87" width="33.6640625" style="6" customWidth="1"/>
+    <col min="88" max="88" width="27" style="6" customWidth="1"/>
+    <col min="89" max="89" width="37.44140625" style="6" customWidth="1"/>
+    <col min="90" max="90" width="31.109375" style="6" customWidth="1"/>
+    <col min="91" max="91" width="32.21875" style="6" customWidth="1"/>
+    <col min="92" max="92" width="31.44140625" style="6" customWidth="1"/>
+    <col min="93" max="93" width="28.6640625" style="6" customWidth="1"/>
+    <col min="94" max="94" width="32.5546875" style="6" customWidth="1"/>
+    <col min="95" max="95" width="31.6640625" style="6" customWidth="1"/>
+    <col min="96" max="96" width="38.77734375" style="6" customWidth="1"/>
+    <col min="97" max="97" width="51.21875" style="6" customWidth="1"/>
+    <col min="98" max="98" width="31.88671875" style="6" customWidth="1"/>
+    <col min="99" max="99" width="32" style="6" customWidth="1"/>
+    <col min="100" max="100" width="19" style="6" customWidth="1"/>
+    <col min="101" max="101" width="30" style="6" customWidth="1"/>
+    <col min="102" max="102" width="54.44140625" style="6" customWidth="1"/>
+    <col min="103" max="103" width="38.33203125" style="6" customWidth="1"/>
+    <col min="104" max="104" width="35" style="6" customWidth="1"/>
+    <col min="105" max="105" width="26.109375" style="6" customWidth="1"/>
+    <col min="106" max="106" width="29.6640625" style="6" customWidth="1"/>
+    <col min="107" max="107" width="48.44140625" style="6" customWidth="1"/>
+    <col min="108" max="108" width="58.109375" style="6" customWidth="1"/>
+    <col min="109" max="109" width="21.5546875" style="6" customWidth="1"/>
+    <col min="110" max="110" width="23.44140625" style="6" customWidth="1"/>
+    <col min="111" max="111" width="27.44140625" style="6" customWidth="1"/>
+    <col min="112" max="112" width="45.109375" style="6" customWidth="1"/>
+    <col min="113" max="113" width="45.21875" style="6" customWidth="1"/>
+    <col min="114" max="114" width="44.33203125" style="6" customWidth="1"/>
+    <col min="115" max="115" width="27.33203125" style="6" customWidth="1"/>
+    <col min="116" max="116" width="38.77734375" style="6" customWidth="1"/>
+    <col min="117" max="117" width="53.6640625" style="6" customWidth="1"/>
+    <col min="118" max="118" width="44.33203125" style="6" customWidth="1"/>
+    <col min="119" max="119" width="39.21875" style="6" customWidth="1"/>
+    <col min="120" max="120" width="37.33203125" style="6" customWidth="1"/>
+    <col min="121" max="121" width="42.77734375" style="6" customWidth="1"/>
+    <col min="122" max="122" width="40.44140625" style="6" customWidth="1"/>
+    <col min="123" max="123" width="42.77734375" style="6" customWidth="1"/>
+    <col min="124" max="124" width="44.21875" style="6" customWidth="1"/>
+    <col min="125" max="125" width="41.5546875" style="6" customWidth="1"/>
+    <col min="126" max="126" width="35.33203125" style="6" customWidth="1"/>
+    <col min="127" max="127" width="36.33203125" style="6" customWidth="1"/>
+    <col min="128" max="128" width="40.6640625" style="6" customWidth="1"/>
+    <col min="129" max="129" width="42.21875" style="6" customWidth="1"/>
+    <col min="130" max="130" width="36.109375" style="6" customWidth="1"/>
+    <col min="131" max="131" width="41.109375" style="6" customWidth="1"/>
+    <col min="132" max="132" width="45.77734375" style="6" customWidth="1"/>
+    <col min="133" max="133" width="44.21875" style="6" customWidth="1"/>
+    <col min="134" max="134" width="43.21875" style="6" customWidth="1"/>
+    <col min="135" max="135" width="36.88671875" style="6" customWidth="1"/>
+    <col min="136" max="136" width="30.44140625" style="6" customWidth="1"/>
+    <col min="137" max="137" width="40.44140625" style="6" customWidth="1"/>
+    <col min="138" max="138" width="38.5546875" style="6" customWidth="1"/>
+    <col min="139" max="139" width="57" style="6" customWidth="1"/>
+    <col min="140" max="140" width="50.33203125" style="6" customWidth="1"/>
+    <col min="141" max="141" width="47" style="6" customWidth="1"/>
+    <col min="142" max="142" width="47.21875" style="6" customWidth="1"/>
+    <col min="143" max="143" width="48.6640625" style="6" customWidth="1"/>
+    <col min="144" max="144" width="40.6640625" style="6" customWidth="1"/>
+    <col min="145" max="145" width="48.6640625" style="6" customWidth="1"/>
+    <col min="146" max="146" width="38" style="6" customWidth="1"/>
+    <col min="147" max="147" width="40.21875" style="6" customWidth="1"/>
+    <col min="148" max="148" width="49.5546875" style="6" customWidth="1"/>
+    <col min="149" max="149" width="32.33203125" style="6" customWidth="1"/>
+    <col min="150" max="150" width="30.44140625" style="6" customWidth="1"/>
+    <col min="151" max="151" width="48.77734375" style="6" customWidth="1"/>
+    <col min="152" max="152" width="35.77734375" style="6" customWidth="1"/>
+    <col min="153" max="153" width="38.44140625" style="6" customWidth="1"/>
+    <col min="154" max="154" width="43.21875" style="6" customWidth="1"/>
+    <col min="155" max="155" width="47.88671875" style="6" customWidth="1"/>
+    <col min="156" max="156" width="45.109375" style="6" customWidth="1"/>
+    <col min="157" max="157" width="37.88671875" style="6" customWidth="1"/>
+    <col min="158" max="158" width="36" style="6" customWidth="1"/>
+    <col min="159" max="159" width="38.21875" style="6" customWidth="1"/>
+    <col min="160" max="160" width="32.88671875" style="6" customWidth="1"/>
+    <col min="161" max="161" width="28.44140625" style="6" customWidth="1"/>
+    <col min="162" max="162" width="29.88671875" style="6" customWidth="1"/>
+    <col min="163" max="163" width="47.109375" style="6" customWidth="1"/>
+    <col min="164" max="164" width="40.5546875" style="6" customWidth="1"/>
+    <col min="165" max="165" width="44.77734375" style="6" customWidth="1"/>
+    <col min="166" max="166" width="52.21875" style="6" customWidth="1"/>
+    <col min="167" max="167" width="57.88671875" style="6" customWidth="1"/>
+    <col min="168" max="168" width="42.5546875" style="6" customWidth="1"/>
+    <col min="169" max="169" width="58" style="6" customWidth="1"/>
+    <col min="170" max="170" width="43.88671875" style="6" customWidth="1"/>
+    <col min="171" max="171" width="42.77734375" style="6" customWidth="1"/>
+    <col min="172" max="172" width="35.33203125" style="6" customWidth="1"/>
+    <col min="173" max="173" width="39.5546875" style="6" customWidth="1"/>
+    <col min="174" max="174" width="40" style="6" customWidth="1"/>
+    <col min="175" max="175" width="58.33203125" style="6" customWidth="1"/>
+    <col min="176" max="176" width="40.6640625" style="6" customWidth="1"/>
+    <col min="177" max="177" width="45.88671875" style="6" customWidth="1"/>
+    <col min="178" max="179" width="47.33203125" style="6" customWidth="1"/>
+    <col min="180" max="180" width="56.109375" style="6" customWidth="1"/>
+    <col min="181" max="181" width="52.33203125" style="6" customWidth="1"/>
+    <col min="182" max="182" width="37.109375" style="6" customWidth="1"/>
+    <col min="183" max="183" width="33.77734375" style="6" customWidth="1"/>
+    <col min="184" max="184" width="26.21875" style="6" customWidth="1"/>
+    <col min="185" max="185" width="31.88671875" style="6" customWidth="1"/>
+    <col min="186" max="186" width="33.109375" style="6" customWidth="1"/>
+    <col min="187" max="187" width="41.109375" style="6" customWidth="1"/>
+    <col min="188" max="188" width="43.21875" style="6" customWidth="1"/>
+    <col min="189" max="189" width="58" style="6" customWidth="1"/>
+    <col min="190" max="190" width="45.109375" style="6" customWidth="1"/>
+    <col min="191" max="191" width="35.6640625" style="6" customWidth="1"/>
+    <col min="192" max="192" width="34.44140625" style="6" customWidth="1"/>
+    <col min="193" max="193" width="49.109375" style="6" customWidth="1"/>
+    <col min="194" max="194" width="43.88671875" style="6" customWidth="1"/>
+    <col min="195" max="195" width="44.6640625" style="6" customWidth="1"/>
+    <col min="196" max="196" width="35.6640625" style="6" customWidth="1"/>
+    <col min="197" max="197" width="38.33203125" style="6" customWidth="1"/>
+    <col min="198" max="198" width="43" style="6" customWidth="1"/>
+    <col min="199" max="199" width="41.21875" style="6" customWidth="1"/>
+    <col min="200" max="200" width="46.44140625" style="6" customWidth="1"/>
+    <col min="201" max="201" width="41.6640625" style="6" customWidth="1"/>
+    <col min="202" max="202" width="31.77734375" style="6" customWidth="1"/>
+    <col min="203" max="203" width="46.88671875" style="6" customWidth="1"/>
+    <col min="204" max="204" width="48.5546875" style="6" customWidth="1"/>
+    <col min="205" max="205" width="51.77734375" style="6" customWidth="1"/>
+    <col min="206" max="206" width="47.5546875" style="6" customWidth="1"/>
+    <col min="207" max="207" width="42.6640625" style="6" customWidth="1"/>
+    <col min="208" max="208" width="49.21875" style="6" customWidth="1"/>
+    <col min="209" max="209" width="39.6640625" style="6" customWidth="1"/>
+    <col min="210" max="210" width="38.109375" style="6" customWidth="1"/>
+    <col min="211" max="211" width="46.44140625" style="6" customWidth="1"/>
+    <col min="212" max="212" width="52.6640625" style="6" customWidth="1"/>
+    <col min="213" max="213" width="52.77734375" style="6" customWidth="1"/>
+    <col min="214" max="214" width="48" style="6" customWidth="1"/>
+    <col min="215" max="215" width="47.6640625" style="6" customWidth="1"/>
+    <col min="216" max="216" width="48" style="6" customWidth="1"/>
+    <col min="217" max="217" width="41" style="6" customWidth="1"/>
+    <col min="218" max="218" width="42.77734375" style="6" customWidth="1"/>
+    <col min="219" max="219" width="32" style="6" customWidth="1"/>
+    <col min="220" max="220" width="41.21875" style="6" customWidth="1"/>
+    <col min="221" max="221" width="47.5546875" style="6" customWidth="1"/>
+    <col min="222" max="222" width="49.5546875" style="6" customWidth="1"/>
+    <col min="223" max="223" width="60.88671875" style="6" customWidth="1"/>
+    <col min="224" max="224" width="42.77734375" style="6" customWidth="1"/>
+    <col min="225" max="225" width="57.109375" style="6" customWidth="1"/>
+    <col min="226" max="226" width="60.33203125" style="6" customWidth="1"/>
+    <col min="227" max="227" width="61.21875" style="6" customWidth="1"/>
+    <col min="228" max="228" width="69.44140625" style="6" customWidth="1"/>
+    <col min="229" max="229" width="65.109375" style="6" customWidth="1"/>
+    <col min="230" max="230" width="60" style="6" customWidth="1"/>
+    <col min="231" max="231" width="61.44140625" style="6" customWidth="1"/>
+    <col min="232" max="232" width="65.5546875" style="6" customWidth="1"/>
+    <col min="233" max="233" width="53" style="6" customWidth="1"/>
+    <col min="234" max="234" width="56.6640625" style="6" customWidth="1"/>
+    <col min="235" max="235" width="54.109375" style="6" customWidth="1"/>
+    <col min="236" max="236" width="53.77734375" style="6" customWidth="1"/>
+    <col min="237" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1030,7 +3271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1040,12 +3281,12 @@
       <c r="G17" s="11"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +3315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
@@ -1101,6 +3342,1440 @@
       </c>
       <c r="I20" s="11" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:238" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:238" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="U23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG23" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL23" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM23" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN23" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP23" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR23" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT23" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY23" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ23" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA23" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD23" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF23" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM23" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN23" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP23" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BQ23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS23" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT23" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV23" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW23" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BX23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY23" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ23" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA23" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="CD23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE23" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CG23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="CH23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI23" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK23" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL23" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="CM23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="CN23" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO23" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="CP23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="CQ23" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="CR23" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="CS23" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="CT23" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="CV23" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="CW23" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="CX23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="CY23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="CZ23" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="DA23" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="DB23" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="DC23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="DD23" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="DE23" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF23" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="DG23" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="DH23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="DI23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="DJ23" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="DK23" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="DM23" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="DN23" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO23" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="DP23" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="DS23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT23" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU23" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="DV23" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="DW23" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="DX23" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="DY23" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="DZ23" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA23" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="EB23" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC23" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED23" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="EE23" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="EF23" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="EG23" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="EH23" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI23" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="EJ23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="EK23" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="EL23" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="EM23" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="EN23" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="EO23" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="EP23" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="EQ23" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER23" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="ES23" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="ET23" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="EU23" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="EV23" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="EW23" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="EX23" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="EY23" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="EZ23" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="FA23" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="FB23" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="FC23" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="FD23" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="FE23" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="FF23" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="FG23" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="FH23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="FI23" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="FJ23" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="FK23" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL23" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="FM23" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="FN23" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="FO23" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="FP23" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="FQ23" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="FR23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="FS23" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="FT23" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="FU23" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="FV23" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="FW23" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="FX23" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="FY23" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="FZ23" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="GA23" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="GB23" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="GC23" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="GD23" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="GE23" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="GF23" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="GG23" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="GH23" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="GI23" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="GJ23" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="GK23" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="GL23" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="GM23" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="GN23" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="GO23" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="GP23" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="GQ23" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="GR23" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="GS23" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="GT23" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="GU23" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="GV23" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="GW23" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="GX23" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="GY23" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="GZ23" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="HA23" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="HB23" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="HC23" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="HD23" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="HE23" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="HF23" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="HG23" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="HH23" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="HI23" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="HJ23" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="HK23" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="HL23" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="HM23" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="HN23" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="HO23" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="HP23" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="HQ23" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="HR23" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="HS23" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="HT23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="HU23" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="HV23" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="HW23" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="HX23" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="HY23" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="HZ23" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="IA23" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="IB23" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="IC23" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="ID23" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:238" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>391</v>
+      </c>
+      <c r="G24">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I24" t="s">
+        <v>292</v>
+      </c>
+      <c r="J24" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" t="s">
+        <v>294</v>
+      </c>
+      <c r="L24" t="s">
+        <v>295</v>
+      </c>
+      <c r="M24" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" t="s">
+        <v>297</v>
+      </c>
+      <c r="O24" t="s">
+        <v>298</v>
+      </c>
+      <c r="P24" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>299</v>
+      </c>
+      <c r="R24" t="s">
+        <v>298</v>
+      </c>
+      <c r="S24" t="s">
+        <v>298</v>
+      </c>
+      <c r="T24" t="s">
+        <v>298</v>
+      </c>
+      <c r="U24" t="s">
+        <v>298</v>
+      </c>
+      <c r="V24" t="s">
+        <v>300</v>
+      </c>
+      <c r="W24" t="s">
+        <v>301</v>
+      </c>
+      <c r="X24" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>311</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>313</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>314</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DO24" t="s">
+        <v>315</v>
+      </c>
+      <c r="DP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="ED24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="ER24" t="s">
+        <v>296</v>
+      </c>
+      <c r="ES24" t="s">
+        <v>296</v>
+      </c>
+      <c r="ET24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="EZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>316</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FF24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FW24" t="s">
+        <v>317</v>
+      </c>
+      <c r="FX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="FZ24" t="s">
+        <v>318</v>
+      </c>
+      <c r="GA24" t="s">
+        <v>319</v>
+      </c>
+      <c r="GB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GE24" t="s">
+        <v>320</v>
+      </c>
+      <c r="GF24" t="s">
+        <v>299</v>
+      </c>
+      <c r="GG24" t="s">
+        <v>299</v>
+      </c>
+      <c r="GH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GJ24" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="GK24" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="GL24" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="GM24" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="GN24" t="s">
+        <v>322</v>
+      </c>
+      <c r="GO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GP24" t="s">
+        <v>323</v>
+      </c>
+      <c r="GQ24" t="s">
+        <v>324</v>
+      </c>
+      <c r="GR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="GZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HC24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HD24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HE24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HF24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HG24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HH24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HI24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HJ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HK24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HL24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HM24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HN24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HO24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HP24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HQ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HR24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HS24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HT24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HU24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HV24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HW24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HX24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY24" t="s">
+        <v>296</v>
+      </c>
+      <c r="HZ24" t="s">
+        <v>296</v>
+      </c>
+      <c r="IA24" t="s">
+        <v>296</v>
+      </c>
+      <c r="IB24" t="s">
+        <v>296</v>
+      </c>
+      <c r="IC24" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +4798,1806 @@
     <hyperlink ref="E20" r:id="rId16" xr:uid="{E3FEB062-74A8-4B8B-83D4-798807E5EAB7}"/>
     <hyperlink ref="D16" r:id="rId17" xr:uid="{0B6BB9FB-FE49-4D85-8F05-699336F15141}"/>
     <hyperlink ref="E16" r:id="rId18" xr:uid="{DC27674D-CD5B-4EDE-A219-7292CFB48C26}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{793688F8-8719-4CD7-A312-80E0E1A75F86}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{4631798F-9D3D-444D-A852-DEB6663F2BE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07F6E977-4C1C-4499-8FBB-F3A121DCE253}">
+          <x14:formula1>
+            <xm:f>[BPDATA.xlsx]MyHraDropdowns!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>FC24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A88E3331-4E70-4E19-B473-C7FD2F70AF04}">
+          <x14:formula1>
+            <xm:f>[BPDATA.xlsx]MyHraDropdowns!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H24:FB24 FD24:IC24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCB0C5B0-7A40-41F0-8962-1EAE7E56AA44}">
+          <x14:formula1>
+            <xm:f>dropdowns!$B$2:$B$47</xm:f>
+          </x14:formula1>
+          <xm:sqref>G24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D87842D-CD3F-49DC-A8E3-7D1EC563377D}">
+          <x14:formula1>
+            <xm:f>dropdowns!$A$2:$A$321</xm:f>
+          </x14:formula1>
+          <xm:sqref>F24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B65828-125E-4611-A541-4BC9FAE77045}">
+  <dimension ref="A1:B322"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="26" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="26" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="26" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="26" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="26" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="26" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="26" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="26" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="26" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="26" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="26" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="26" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="26" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="26" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="26" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="26" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="26" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="26" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="26" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="26" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="26" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="26" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="26" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="26" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="26" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="26" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="26" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="26" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="26" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="26" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="26" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="26" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="26" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="26" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="26" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="26" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" s="26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" s="26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" s="26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" s="26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" s="26" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" s="26" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" s="26" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" s="26" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" s="26" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" s="26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" s="26" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" s="26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" s="26" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" s="26" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" s="26" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" s="26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" s="26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" s="26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" s="26" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" s="26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" s="26" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" s="26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" s="26" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" s="26" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" s="26" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" s="26" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" s="26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" s="26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" s="26" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" s="26" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8989983-1AC2-4CA3-AB32-8BB552DD8879}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A708F7-4C44-449A-86F2-D08D437570AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
     <sheet name="Test" sheetId="1" r:id="rId2"/>
     <sheet name="dropdowns" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="832">
   <si>
     <t>LoginTest</t>
   </si>
@@ -204,9 +201,6 @@
     <t>TC11</t>
   </si>
   <si>
-    <t>Verify that, system logs HRA</t>
-  </si>
-  <si>
     <t>1.Please select your weight in pounds from the drop-down menu.</t>
   </si>
   <si>
@@ -948,18 +942,6 @@
     <t>Never smoked</t>
   </si>
   <si>
-    <t>&lt; 1 year</t>
-  </si>
-  <si>
-    <t>&lt; 5</t>
-  </si>
-  <si>
-    <t>I don’t want to quit in the near future</t>
-  </si>
-  <si>
-    <t>&lt; 1 year ago</t>
-  </si>
-  <si>
     <t>&lt;3.9 mmol/L (&lt;150 mg/dL)</t>
   </si>
   <si>
@@ -975,9 +957,6 @@
     <t>&lt; 85 mg/dl OR &lt; 4.7 mmol/L</t>
   </si>
   <si>
-    <t>=10</t>
-  </si>
-  <si>
     <t>No stress in my life</t>
   </si>
   <si>
@@ -2107,13 +2086,445 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>3 or more times a week</t>
+  </si>
+  <si>
+    <t>2 to 3 times per month</t>
+  </si>
+  <si>
+    <t>Less than 2 times per month</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>3 to 6 times per week</t>
+  </si>
+  <si>
+    <t>2 times per month</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Daily / Frequently / Routinely</t>
+  </si>
+  <si>
+    <t>Infrequently</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>8-11 eggs per week</t>
+  </si>
+  <si>
+    <t>5-7 eggs per week</t>
+  </si>
+  <si>
+    <t>2-4 eggs per week</t>
+  </si>
+  <si>
+    <t>Less than 2 eggs per week</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>5-6 times per week</t>
+  </si>
+  <si>
+    <t>2-4 times per week</t>
+  </si>
+  <si>
+    <t>0-1 times per week</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>4-6 times per week</t>
+  </si>
+  <si>
+    <t>2-3 times per week</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>3-4 servings/day</t>
+  </si>
+  <si>
+    <t>1-2 servings/day</t>
+  </si>
+  <si>
+    <t>Q17, 18, 19</t>
+  </si>
+  <si>
+    <t>Q13,14,15,16</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>1-2 times per day</t>
+  </si>
+  <si>
+    <t>once per week or less</t>
+  </si>
+  <si>
+    <t>21-50 minutes/week</t>
+  </si>
+  <si>
+    <t>51-75 minutes/week</t>
+  </si>
+  <si>
+    <t>76-119 minutes/week</t>
+  </si>
+  <si>
+    <t>120-150 minutes/week</t>
+  </si>
+  <si>
+    <t>More than 150 minutes/week</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Once a week</t>
+  </si>
+  <si>
+    <t>Twice a week</t>
+  </si>
+  <si>
+    <t>3 times/week</t>
+  </si>
+  <si>
+    <t>4 or more times/week</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Ex-smoker</t>
+  </si>
+  <si>
+    <t>Currently smoking</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>Q41</t>
+  </si>
+  <si>
+    <t>&lt;1 Year</t>
+  </si>
+  <si>
+    <t>1-3 Years</t>
+  </si>
+  <si>
+    <t>3-5 Years</t>
+  </si>
+  <si>
+    <t>5-10 Years</t>
+  </si>
+  <si>
+    <t>10-20 Years</t>
+  </si>
+  <si>
+    <t>&gt;20 Years</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>&gt;40</t>
+  </si>
+  <si>
+    <t>I don't want to quit in the near future</t>
+  </si>
+  <si>
+    <t>I have made a commitment to quit smoking sometime in the next 6 months</t>
+  </si>
+  <si>
+    <t>I plan to quit in the next 30 days</t>
+  </si>
+  <si>
+    <t>I am currently in the process of quitting</t>
+  </si>
+  <si>
+    <t>Q78</t>
+  </si>
+  <si>
+    <t>Q79</t>
+  </si>
+  <si>
+    <t>3.9 to 4.8 mmol/L (150 to 185 mg/dL)</t>
+  </si>
+  <si>
+    <t>4.9 to 5.2 mmol/L (186 to 200 mg/dL)</t>
+  </si>
+  <si>
+    <t>5.3 to 6.2 mmol/L (201 to 239 mg/dL)</t>
+  </si>
+  <si>
+    <t>6.3 to 7.2 mmol/L (240 to 276 mg/dL)</t>
+  </si>
+  <si>
+    <t>&gt;7.2 mmol/L (&gt;276 mg/dL)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>1.9 to 2.5 mmol/L (70 to 92 mg/dL)</t>
+  </si>
+  <si>
+    <t>2.6 to 3.3 mmol/L (93 to 129 mg/dL)</t>
+  </si>
+  <si>
+    <t>3.4 to 4.1 mmol/L (130 to 159 mg/dL)</t>
+  </si>
+  <si>
+    <t>4.2 to 4.9 mmol/L (160 to 189 mg/dL)</t>
+  </si>
+  <si>
+    <t>&gt;4.9 mmol/L (&gt;189 mg/dL)</t>
+  </si>
+  <si>
+    <t>Q80</t>
+  </si>
+  <si>
+    <t>= or &gt; 1.42 mmol/L (= or &gt; 55 mg/dL)</t>
+  </si>
+  <si>
+    <t>Q86</t>
+  </si>
+  <si>
+    <t>Systolic 120-139 OR Diastolic 80-89</t>
+  </si>
+  <si>
+    <t>Systolic 140-159 OR Diastolic 90-99</t>
+  </si>
+  <si>
+    <t>Systolic 160-180 OR Diastolic 100-110</t>
+  </si>
+  <si>
+    <t>Systolic &gt;180 OR Diastolic &gt;110</t>
+  </si>
+  <si>
+    <t>Q114</t>
+  </si>
+  <si>
+    <t>85-89 mg/dl OR 4.7-4.9 mmol/L</t>
+  </si>
+  <si>
+    <t>90-94 mg/d OR 5.0-5.2 mmol/L</t>
+  </si>
+  <si>
+    <t>95-99 mg/dl OR 5.3-5.5 mmol/L</t>
+  </si>
+  <si>
+    <t>100-125 mg/d OR 5.6-6.9 mmol/L</t>
+  </si>
+  <si>
+    <t>&gt;125 mg/dl OR =7.0 mmol/L</t>
+  </si>
+  <si>
+    <t>Q176</t>
+  </si>
+  <si>
+    <t>Mild stress in my life</t>
+  </si>
+  <si>
+    <t>Moderate stress in my life</t>
+  </si>
+  <si>
+    <t>Severe stress in my life</t>
+  </si>
+  <si>
+    <t>Extreme stress in my life</t>
+  </si>
+  <si>
+    <t>Q179</t>
+  </si>
+  <si>
+    <t>Q180</t>
+  </si>
+  <si>
+    <t>Some stress/tension with some difficulty</t>
+  </si>
+  <si>
+    <t>Little tension/stress but could still be improved</t>
+  </si>
+  <si>
+    <t>Very happy and almost perfect</t>
+  </si>
+  <si>
+    <t>I currently don’t have a partner</t>
+  </si>
+  <si>
+    <t>I have a few friends, but find it difficult to meet new people</t>
+  </si>
+  <si>
+    <t>I have a few friends, but able to meet more if I chose to do so</t>
+  </si>
+  <si>
+    <t>I have a good-sized friend network and could meet new people if I wanted to</t>
+  </si>
+  <si>
+    <t>I have a huge friend network and easily meet new people</t>
+  </si>
+  <si>
+    <t>Q184</t>
+  </si>
+  <si>
+    <t>Miss very often</t>
+  </si>
+  <si>
+    <t>Miss often</t>
+  </si>
+  <si>
+    <t>Rarely miss</t>
+  </si>
+  <si>
+    <t>Never miss</t>
+  </si>
+  <si>
+    <t>Q192</t>
+  </si>
+  <si>
+    <t>Never/Rarely</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Usually</t>
+  </si>
+  <si>
+    <t>All the time</t>
+  </si>
+  <si>
+    <t>Q193</t>
+  </si>
+  <si>
+    <t>Within the next 6 months I am planning to take some positive steps to improve my health status through nutrition and/or lifestyle changes</t>
+  </si>
+  <si>
+    <t>Within the next month I am planning to take some positive steps to improve my health status through nutrition and/or lifestyle changes</t>
+  </si>
+  <si>
+    <t>Within the past year I have taken some new positive steps to improve my health status through nutrition and/or lifestyle changes</t>
+  </si>
+  <si>
+    <t>For a number of years I have consistently engaged in nutrition and lifestyle practices aimed at improving and preserving my health status</t>
+  </si>
+  <si>
+    <t>Q195</t>
+  </si>
+  <si>
+    <t>Q196</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>South Asian</t>
+  </si>
+  <si>
+    <t>Aboriginal Peoples</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>My health status has a minor influence on these things.</t>
+  </si>
+  <si>
+    <t>My health status has a modest influence on these things.</t>
+  </si>
+  <si>
+    <t>My health status has a significant influence on these things.</t>
+  </si>
+  <si>
+    <t>Q194</t>
+  </si>
+  <si>
+    <t>Don’t know</t>
+  </si>
+  <si>
+    <t>Verify that, System successfully complete HRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,6 +2576,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2249,7 +2665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2289,8 +2705,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -2308,39 +2743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Test_Suites"/>
-      <sheetName val="LearnAndEarn"/>
-      <sheetName val="AsthmaTracker"/>
-      <sheetName val="WeightTracker"/>
-      <sheetName val="BloodGlucoseTracker"/>
-      <sheetName val="BloodPressureTracker"/>
-      <sheetName val="LoginTest"/>
-      <sheetName val="CholesterolTracker"/>
-      <sheetName val="MyHraMale"/>
-      <sheetName val="MyHraFemale"/>
-      <sheetName val="MyHraDropdowns"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2612,14 +3014,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2627,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -2643,67 +3045,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
@@ -2714,13 +3116,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ID24"/>
+  <dimension ref="A1:ID36"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="6" customWidth="1"/>
@@ -2957,15 +3359,17 @@
     <col min="234" max="234" width="56.6640625" style="6" customWidth="1"/>
     <col min="235" max="235" width="54.109375" style="6" customWidth="1"/>
     <col min="236" max="236" width="53.77734375" style="6" customWidth="1"/>
-    <col min="237" max="16384" width="9.109375" style="6"/>
+    <col min="237" max="237" width="25" style="6" customWidth="1"/>
+    <col min="238" max="238" width="28.33203125" style="6" customWidth="1"/>
+    <col min="239" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3005,7 +3409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -3045,12 +3449,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -3079,14 +3483,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -3109,14 +3513,14 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3139,14 +3543,14 @@
       </c>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="32" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3169,14 +3573,14 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3198,7 +3602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3208,12 +3612,12 @@
       <c r="G13" s="11"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -3242,14 +3646,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -3271,7 +3675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:238">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3281,12 +3685,12 @@
       <c r="G17" s="11"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:238">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:238">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -3315,7 +3719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:238">
       <c r="A20" s="11" t="s">
         <v>54</v>
       </c>
@@ -3344,12 +3748,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:238">
       <c r="A22" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:238" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:238" ht="57.6">
       <c r="A23" s="23" t="s">
         <v>17</v>
       </c>
@@ -3366,706 +3770,706 @@
         <v>3</v>
       </c>
       <c r="F23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="H23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="I23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="J23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="K23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="L23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="M23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="N23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="O23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="P23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="Q23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="19" t="s">
+      <c r="R23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="19" t="s">
+      <c r="S23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="S23" s="19" t="s">
+      <c r="T23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="T23" s="19" t="s">
+      <c r="U23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="V23" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="V23" s="19" t="s">
+      <c r="W23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="X23" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="Y23" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Y23" s="19" t="s">
+      <c r="Z23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="Z23" s="19" t="s">
+      <c r="AA23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="AA23" s="19" t="s">
+      <c r="AB23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AB23" s="19" t="s">
+      <c r="AC23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AC23" s="19" t="s">
+      <c r="AD23" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AD23" s="19" t="s">
+      <c r="AE23" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AE23" s="19" t="s">
+      <c r="AF23" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AF23" s="19" t="s">
+      <c r="AG23" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AG23" s="19" t="s">
+      <c r="AH23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AH23" s="20" t="s">
+      <c r="AI23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AI23" s="19" t="s">
+      <c r="AJ23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AJ23" s="19" t="s">
+      <c r="AK23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="AL23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AL23" s="20" t="s">
+      <c r="AM23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AM23" s="19" t="s">
+      <c r="AN23" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AN23" s="19" t="s">
+      <c r="AO23" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AO23" s="19" t="s">
+      <c r="AP23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AP23" s="19" t="s">
+      <c r="AQ23" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AQ23" s="19" t="s">
+      <c r="AR23" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AR23" s="19" t="s">
+      <c r="AS23" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AS23" s="19" t="s">
+      <c r="AT23" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AT23" s="19" t="s">
+      <c r="AU23" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AU23" s="19" t="s">
+      <c r="AV23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AV23" s="19" t="s">
+      <c r="AW23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AW23" s="19" t="s">
+      <c r="AX23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AX23" s="19" t="s">
+      <c r="AY23" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AY23" s="19" t="s">
+      <c r="AZ23" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="AZ23" s="19" t="s">
+      <c r="BA23" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="BA23" s="19" t="s">
+      <c r="BB23" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="BB23" s="19" t="s">
+      <c r="BC23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="BC23" s="19" t="s">
+      <c r="BD23" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="BD23" s="19" t="s">
+      <c r="BE23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="BE23" s="21" t="s">
+      <c r="BF23" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="BF23" s="20" t="s">
+      <c r="BG23" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="BG23" s="19" t="s">
+      <c r="BH23" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="BH23" s="19" t="s">
+      <c r="BI23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="BI23" s="19" t="s">
+      <c r="BJ23" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="BJ23" s="19" t="s">
+      <c r="BK23" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="BK23" s="19" t="s">
+      <c r="BL23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="BL23" s="19" t="s">
+      <c r="BM23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="BM23" s="19" t="s">
+      <c r="BN23" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="BN23" s="19" t="s">
+      <c r="BO23" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="BO23" s="19" t="s">
+      <c r="BP23" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="BP23" s="19" t="s">
+      <c r="BQ23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="BQ23" s="19" t="s">
+      <c r="BR23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="BR23" s="19" t="s">
+      <c r="BS23" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="BS23" s="19" t="s">
+      <c r="BT23" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="BT23" s="19" t="s">
+      <c r="BU23" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="BU23" s="19" t="s">
+      <c r="BV23" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="BV23" s="19" t="s">
+      <c r="BW23" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="BW23" s="19" t="s">
+      <c r="BX23" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="BX23" s="19" t="s">
+      <c r="BY23" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="BY23" s="19" t="s">
+      <c r="BZ23" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="BZ23" s="19" t="s">
+      <c r="CA23" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="CA23" s="19" t="s">
+      <c r="CB23" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="CB23" s="19" t="s">
+      <c r="CC23" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="CC23" s="19" t="s">
+      <c r="CD23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="CD23" s="19" t="s">
+      <c r="CE23" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="CE23" s="19" t="s">
+      <c r="CF23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="CF23" s="19" t="s">
+      <c r="CG23" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="CG23" s="19" t="s">
+      <c r="CH23" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="CH23" s="19" t="s">
+      <c r="CI23" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="CI23" s="19" t="s">
+      <c r="CJ23" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="CJ23" s="19" t="s">
+      <c r="CK23" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="CK23" s="19" t="s">
+      <c r="CL23" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="CL23" s="20" t="s">
+      <c r="CM23" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="CM23" s="19" t="s">
+      <c r="CN23" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="CN23" s="19" t="s">
+      <c r="CO23" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="CO23" s="19" t="s">
+      <c r="CP23" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="CP23" s="19" t="s">
+      <c r="CQ23" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="CQ23" s="19" t="s">
+      <c r="CR23" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="CR23" s="19" t="s">
+      <c r="CS23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="CS23" s="20" t="s">
+      <c r="CT23" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="CT23" s="19" t="s">
+      <c r="CU23" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="CU23" s="21" t="s">
+      <c r="CV23" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="CV23" s="21" t="s">
+      <c r="CW23" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="CW23" s="21" t="s">
+      <c r="CX23" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="CX23" s="19" t="s">
+      <c r="CY23" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="CY23" s="19" t="s">
+      <c r="CZ23" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="CZ23" s="21" t="s">
+      <c r="DA23" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="DA23" s="21" t="s">
+      <c r="DB23" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="DB23" s="21" t="s">
+      <c r="DC23" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="DC23" s="21" t="s">
+      <c r="DD23" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="DD23" s="19" t="s">
+      <c r="DE23" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="DE23" s="21" t="s">
+      <c r="DF23" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="DF23" s="21" t="s">
+      <c r="DG23" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="DG23" s="21" t="s">
+      <c r="DH23" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="DH23" s="19" t="s">
+      <c r="DI23" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="DI23" s="21" t="s">
+      <c r="DJ23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="DJ23" s="19" t="s">
+      <c r="DK23" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="DK23" s="19" t="s">
+      <c r="DL23" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="DL23" s="19" t="s">
+      <c r="DM23" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="DM23" s="19" t="s">
+      <c r="DN23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="DN23" s="19" t="s">
+      <c r="DO23" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="DO23" s="19" t="s">
+      <c r="DP23" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="DP23" s="19" t="s">
+      <c r="DQ23" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="DQ23" s="19" t="s">
+      <c r="DR23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="DR23" s="19" t="s">
+      <c r="DS23" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="DS23" s="19" t="s">
+      <c r="DT23" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="DT23" s="19" t="s">
+      <c r="DU23" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="DU23" s="19" t="s">
+      <c r="DV23" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="DV23" s="19" t="s">
+      <c r="DW23" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="DW23" s="19" t="s">
+      <c r="DX23" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="DX23" s="19" t="s">
+      <c r="DY23" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="DY23" s="19" t="s">
+      <c r="DZ23" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="DZ23" s="19" t="s">
+      <c r="EA23" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="EA23" s="19" t="s">
+      <c r="EB23" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="EB23" s="19" t="s">
+      <c r="EC23" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="EC23" s="19" t="s">
+      <c r="ED23" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="ED23" s="19" t="s">
+      <c r="EE23" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="EE23" s="19" t="s">
+      <c r="EF23" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="EF23" s="19" t="s">
+      <c r="EG23" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="EG23" s="19" t="s">
+      <c r="EH23" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="EH23" s="19" t="s">
+      <c r="EI23" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="EI23" s="19" t="s">
+      <c r="EJ23" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="EJ23" s="19" t="s">
+      <c r="EK23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="EK23" s="19" t="s">
+      <c r="EL23" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="EL23" s="19" t="s">
+      <c r="EM23" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="EM23" s="19" t="s">
+      <c r="EN23" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="EN23" s="19" t="s">
+      <c r="EO23" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="EO23" s="19" t="s">
+      <c r="EP23" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="EP23" s="19" t="s">
+      <c r="EQ23" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="EQ23" s="19" t="s">
+      <c r="ER23" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="ER23" s="19" t="s">
+      <c r="ES23" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="ES23" s="19" t="s">
+      <c r="ET23" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="ET23" s="19" t="s">
+      <c r="EU23" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="EU23" s="19" t="s">
+      <c r="EV23" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="EV23" s="19" t="s">
+      <c r="EW23" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="EW23" s="19" t="s">
+      <c r="EX23" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="EX23" s="19" t="s">
+      <c r="EY23" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="EY23" s="19" t="s">
+      <c r="EZ23" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="EZ23" s="19" t="s">
+      <c r="FA23" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="FA23" s="19" t="s">
+      <c r="FB23" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="FB23" s="19" t="s">
+      <c r="FC23" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="FC23" s="19" t="s">
+      <c r="FD23" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="FD23" s="19" t="s">
+      <c r="FE23" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="FE23" s="19" t="s">
+      <c r="FF23" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="FF23" s="19" t="s">
+      <c r="FG23" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="FG23" s="19" t="s">
+      <c r="FH23" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="FH23" s="19" t="s">
+      <c r="FI23" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="FI23" s="19" t="s">
+      <c r="FJ23" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="FJ23" s="20" t="s">
+      <c r="FK23" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="FK23" s="20" t="s">
+      <c r="FL23" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="FL23" s="19" t="s">
+      <c r="FM23" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="FM23" s="19" t="s">
+      <c r="FN23" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="FN23" s="19" t="s">
+      <c r="FO23" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="FO23" s="19" t="s">
+      <c r="FP23" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="FP23" s="19" t="s">
+      <c r="FQ23" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="FQ23" s="19" t="s">
+      <c r="FR23" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="FR23" s="19" t="s">
+      <c r="FS23" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="FS23" s="19" t="s">
+      <c r="FT23" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="FT23" s="19" t="s">
+      <c r="FU23" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="FU23" s="19" t="s">
+      <c r="FV23" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="FV23" s="20" t="s">
+      <c r="FW23" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="FW23" s="21" t="s">
+      <c r="FX23" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="FX23" s="20" t="s">
+      <c r="FY23" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="FY23" s="19" t="s">
+      <c r="FZ23" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="FZ23" s="19" t="s">
+      <c r="GA23" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="GA23" s="20" t="s">
+      <c r="GB23" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="GB23" s="19" t="s">
+      <c r="GC23" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="GC23" s="19" t="s">
+      <c r="GD23" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="GD23" s="19" t="s">
+      <c r="GE23" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="GE23" s="19" t="s">
+      <c r="GF23" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="GF23" s="19" t="s">
+      <c r="GG23" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="GG23" s="19" t="s">
+      <c r="GH23" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="GH23" s="19" t="s">
+      <c r="GI23" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="GI23" s="19" t="s">
+      <c r="GJ23" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="GJ23" s="19" t="s">
+      <c r="GK23" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="GK23" s="19" t="s">
+      <c r="GL23" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="GL23" s="19" t="s">
+      <c r="GM23" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="GM23" s="19" t="s">
+      <c r="GN23" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="GN23" s="19" t="s">
+      <c r="GO23" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="GO23" s="20" t="s">
+      <c r="GP23" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="GP23" s="19" t="s">
+      <c r="GQ23" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="GQ23" s="19" t="s">
+      <c r="GR23" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="GR23" s="21" t="s">
+      <c r="GS23" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="GS23" s="19" t="s">
+      <c r="GT23" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="GT23" s="19" t="s">
+      <c r="GU23" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="GU23" s="19" t="s">
+      <c r="GV23" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="GV23" s="19" t="s">
+      <c r="GW23" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="GW23" s="19" t="s">
+      <c r="GX23" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="GX23" s="19" t="s">
+      <c r="GY23" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="GY23" s="19" t="s">
+      <c r="GZ23" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="GZ23" s="19" t="s">
+      <c r="HA23" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="HA23" s="19" t="s">
+      <c r="HB23" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="HB23" s="19" t="s">
+      <c r="HC23" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="HC23" s="19" t="s">
+      <c r="HD23" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="HD23" s="19" t="s">
+      <c r="HE23" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="HE23" s="20" t="s">
+      <c r="HF23" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="HF23" s="20" t="s">
+      <c r="HG23" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="HG23" s="21" t="s">
+      <c r="HH23" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="HH23" s="20" t="s">
+      <c r="HI23" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="HI23" s="20" t="s">
+      <c r="HJ23" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="HJ23" s="20" t="s">
+      <c r="HK23" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="HK23" s="20" t="s">
+      <c r="HL23" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="HL23" s="21" t="s">
+      <c r="HM23" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="HM23" s="21" t="s">
+      <c r="HN23" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="HN23" s="20" t="s">
+      <c r="HO23" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="HO23" s="20" t="s">
+      <c r="HP23" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="HP23" s="21" t="s">
+      <c r="HQ23" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="HQ23" s="19" t="s">
+      <c r="HR23" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="HR23" s="21" t="s">
+      <c r="HS23" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="HS23" s="19" t="s">
+      <c r="HT23" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="HT23" s="19" t="s">
+      <c r="HU23" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="HU23" s="21" t="s">
+      <c r="HV23" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="HV23" s="19" t="s">
+      <c r="HW23" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="HW23" s="19" t="s">
+      <c r="HX23" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="HX23" s="20" t="s">
+      <c r="HY23" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="HY23" s="20" t="s">
+      <c r="HZ23" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="HZ23" s="20" t="s">
+      <c r="IA23" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="IA23" s="20" t="s">
+      <c r="IB23" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="IB23" s="20" t="s">
+      <c r="IC23" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="IC23" s="21" t="s">
-        <v>291</v>
       </c>
       <c r="ID23" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:238" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:238" ht="43.2">
       <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
@@ -4073,7 +4477,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>59</v>
+        <v>831</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
@@ -4088,695 +4492,770 @@
         <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I24" t="s">
-        <v>292</v>
+        <v>695</v>
       </c>
       <c r="J24" t="s">
-        <v>293</v>
+        <v>697</v>
       </c>
       <c r="K24" t="s">
-        <v>294</v>
+        <v>697</v>
       </c>
       <c r="L24" t="s">
+        <v>697</v>
+      </c>
+      <c r="M24" t="s">
         <v>295</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>296</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>297</v>
       </c>
-      <c r="O24" t="s">
-        <v>298</v>
-      </c>
       <c r="P24" t="s">
-        <v>299</v>
+        <v>713</v>
       </c>
       <c r="Q24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R24" t="s">
-        <v>298</v>
+        <v>713</v>
       </c>
       <c r="S24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T24" t="s">
-        <v>298</v>
+        <v>712</v>
       </c>
       <c r="U24" t="s">
-        <v>298</v>
+        <v>712</v>
       </c>
       <c r="V24" t="s">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="W24" t="s">
-        <v>301</v>
+        <v>721</v>
       </c>
       <c r="X24" t="s">
-        <v>301</v>
+        <v>721</v>
       </c>
       <c r="Y24" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>725</v>
       </c>
       <c r="AB24" t="s">
-        <v>303</v>
+        <v>713</v>
       </c>
       <c r="AC24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AD24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AE24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AH24" t="s">
-        <v>304</v>
+        <v>730</v>
       </c>
       <c r="AI24" t="s">
-        <v>305</v>
+        <v>736</v>
       </c>
       <c r="AJ24" t="s">
-        <v>305</v>
+        <v>737</v>
       </c>
       <c r="AK24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AO24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AP24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AQ24" t="s">
-        <v>306</v>
+        <v>741</v>
       </c>
       <c r="AR24" t="s">
-        <v>307</v>
+        <v>748</v>
       </c>
       <c r="AS24" t="s">
+        <v>754</v>
+      </c>
+      <c r="AT24" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>748</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>748</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>755</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>298</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>766</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>772</v>
+      </c>
+      <c r="CG24" t="s">
         <v>308</v>
       </c>
-      <c r="AT24" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>310</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>308</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="BZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CA24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CD24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CE24" t="s">
-        <v>311</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>312</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>313</v>
-      </c>
       <c r="CH24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CI24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CJ24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CK24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CL24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CM24" t="s">
+        <v>779</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DA24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DF24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DI24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DJ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DK24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DO24" t="s">
+        <v>784</v>
+      </c>
+      <c r="DP24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DQ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DR24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DS24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DU24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>298</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EG24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EH24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EJ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EL24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EM24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EO24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EQ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="ER24" t="s">
+        <v>298</v>
+      </c>
+      <c r="ES24" t="s">
+        <v>298</v>
+      </c>
+      <c r="ET24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EU24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EV24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY24" t="s">
+        <v>298</v>
+      </c>
+      <c r="EZ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FA24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FB24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FE24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FF24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FI24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FJ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FK24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FL24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FO24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FP24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FQ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FR24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FS24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FT24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FV24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FW24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FX24" t="s">
+        <v>298</v>
+      </c>
+      <c r="FY24" t="s">
+        <v>790</v>
+      </c>
+      <c r="FZ24" t="s">
+        <v>295</v>
+      </c>
+      <c r="GA24" t="s">
+        <v>295</v>
+      </c>
+      <c r="GB24" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="GC24" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="GD24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GE24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GF24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GG24" t="s">
         <v>314</v>
       </c>
-      <c r="CN24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CO24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CP24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CQ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CR24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CS24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CT24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CU24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CV24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CW24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="CZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DA24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DC24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DD24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DE24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DF24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DG24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DH24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DI24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DJ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DK24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DL24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DM24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DN24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DO24" t="s">
+      <c r="GH24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GI24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GJ24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GK24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GL24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GM24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GN24" t="s">
+        <v>298</v>
+      </c>
+      <c r="GO24" t="s">
         <v>315</v>
       </c>
-      <c r="DP24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DQ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DR24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DS24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DT24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DU24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DV24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DW24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="DZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EA24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EC24" t="s">
-        <v>296</v>
-      </c>
-      <c r="ED24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EE24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EF24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EG24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EH24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EI24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EJ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EK24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EL24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EM24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EN24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EO24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EP24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EQ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="ER24" t="s">
-        <v>296</v>
-      </c>
-      <c r="ES24" t="s">
-        <v>296</v>
-      </c>
-      <c r="ET24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EU24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EV24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EW24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="EZ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FA24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FC24" t="s">
-        <v>316</v>
-      </c>
-      <c r="FD24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FE24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FF24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FG24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FH24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FI24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FJ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FK24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FL24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FM24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FN24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FO24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FP24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FQ24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FR24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FS24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FT24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FU24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FV24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FW24" t="s">
-        <v>317</v>
-      </c>
-      <c r="FX24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FY24" t="s">
-        <v>296</v>
-      </c>
-      <c r="FZ24" t="s">
-        <v>318</v>
-      </c>
-      <c r="GA24" t="s">
-        <v>319</v>
-      </c>
-      <c r="GB24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GC24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GD24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GE24" t="s">
-        <v>320</v>
-      </c>
-      <c r="GF24" t="s">
-        <v>299</v>
-      </c>
-      <c r="GG24" t="s">
-        <v>299</v>
-      </c>
-      <c r="GH24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GI24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GJ24" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="GK24" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="GL24" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="GM24" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="GN24" t="s">
-        <v>322</v>
-      </c>
-      <c r="GO24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GP24" t="s">
-        <v>323</v>
+      <c r="GP24" s="34" t="s">
+        <v>814</v>
       </c>
       <c r="GQ24" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="GR24" t="s">
-        <v>296</v>
-      </c>
-      <c r="GS24" t="s">
-        <v>296</v>
+        <v>822</v>
+      </c>
+      <c r="GS24" s="34" t="s">
+        <v>827</v>
       </c>
       <c r="GT24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GU24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GV24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GW24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GX24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GY24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="GZ24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HA24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HB24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HC24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HD24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HE24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HF24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HG24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HH24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HI24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HJ24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HK24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HL24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HM24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HN24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HO24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HP24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HQ24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HR24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HS24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HT24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HU24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HV24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HW24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HX24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HY24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HZ24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IA24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IB24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IC24" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:238">
+      <c r="AT25" s="35"/>
+      <c r="GB25" s="35"/>
+      <c r="GC25" s="35"/>
+      <c r="GP25" s="35"/>
+      <c r="GS25" s="35"/>
+    </row>
+    <row r="26" spans="1:238">
+      <c r="AT26" s="35"/>
+      <c r="GB26" s="35"/>
+      <c r="GC26" s="35"/>
+      <c r="GP26" s="35"/>
+      <c r="GS26" s="35"/>
+    </row>
+    <row r="27" spans="1:238">
+      <c r="AT27" s="35"/>
+      <c r="GB27" s="35"/>
+      <c r="GC27" s="35"/>
+      <c r="GP27" s="35"/>
+      <c r="GS27" s="35"/>
+    </row>
+    <row r="28" spans="1:238">
+      <c r="AT28" s="35"/>
+      <c r="GB28" s="35"/>
+      <c r="GC28" s="35"/>
+      <c r="GP28" s="35"/>
+      <c r="GS28" s="35"/>
+    </row>
+    <row r="29" spans="1:238">
+      <c r="AT29" s="35"/>
+      <c r="GB29" s="35"/>
+      <c r="GC29" s="35"/>
+      <c r="GP29" s="35"/>
+      <c r="GS29" s="35"/>
+    </row>
+    <row r="30" spans="1:238">
+      <c r="AT30" s="35"/>
+      <c r="GB30" s="35"/>
+      <c r="GC30" s="35"/>
+      <c r="GP30" s="35"/>
+      <c r="GS30" s="35"/>
+    </row>
+    <row r="31" spans="1:238">
+      <c r="AT31" s="35"/>
+      <c r="GB31" s="35"/>
+      <c r="GC31" s="35"/>
+      <c r="GP31" s="35"/>
+      <c r="GS31" s="35"/>
+    </row>
+    <row r="32" spans="1:238">
+      <c r="AT32" s="35"/>
+      <c r="GB32" s="35"/>
+      <c r="GC32" s="35"/>
+      <c r="GP32" s="35"/>
+      <c r="GS32" s="35"/>
+    </row>
+    <row r="33" spans="46:201">
+      <c r="AT33" s="35"/>
+      <c r="GB33" s="35"/>
+      <c r="GC33" s="35"/>
+      <c r="GP33" s="35"/>
+      <c r="GS33" s="35"/>
+    </row>
+    <row r="34" spans="46:201">
+      <c r="GP34" s="35"/>
+      <c r="GS34" s="35"/>
+    </row>
+    <row r="35" spans="46:201">
+      <c r="GP35" s="35"/>
+      <c r="GS35" s="35"/>
+    </row>
+    <row r="36" spans="46:201">
+      <c r="GP36" s="35"/>
+      <c r="GS36" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4805,19 +5284,7 @@
   <pageSetup orientation="portrait" r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07F6E977-4C1C-4499-8FBB-F3A121DCE253}">
-          <x14:formula1>
-            <xm:f>[BPDATA.xlsx]MyHraDropdowns!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>FC24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A88E3331-4E70-4E19-B473-C7FD2F70AF04}">
-          <x14:formula1>
-            <xm:f>[BPDATA.xlsx]MyHraDropdowns!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H24:FB24 FD24:IC24</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="36">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCB0C5B0-7A40-41F0-8962-1EAE7E56AA44}">
           <x14:formula1>
             <xm:f>dropdowns!$B$2:$B$47</xm:f>
@@ -4830,6 +5297,210 @@
           </x14:formula1>
           <xm:sqref>F24</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{456D7287-DDDC-42EE-82F6-99F3ABC51133}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{674ED944-105E-43A8-A443-39FC9A67C8C1}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$9:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>I24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7FFECF5A-4FC5-437C-BFF5-477E7AA46B80}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$16:$C$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>J24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5457BCC-A7BA-4065-859B-388C2C54E3A8}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$21:$C$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>K24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0D429D2-D650-43BC-9C3C-7055E80CC152}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$26:$C$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>L24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D4BF049F-2231-4683-9653-5C43F2C3BA16}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$31:$C$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>M24 Q24 Z24 AC24:AG24 AK24:AP24 AX24:CD24 CH24:CL24 CN24:DN24 DP24:FX24 FZ24:GA24 GD24:GF24 GH24:GN24 GT24:IC24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A93F423-1DAE-4DC1-B89B-28F5BC80B199}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$35:$C$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>N24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FABF44DD-356F-4236-86D2-AAB82F931CF3}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$42:$C$45</xm:f>
+          </x14:formula1>
+          <xm:sqref>O24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E515DB2-8911-4853-A51D-D5ED01BF0AC2}">
+          <x14:formula1>
+            <xm:f>dropdowns!$C$48:$C$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>P24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{577E26E3-587A-4F9F-A25F-A2526BA48DAB}">
+          <x14:formula1>
+            <xm:f>dropdowns!$D$2:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>R24:U24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4183104-6E2F-439C-AFFD-52C9F51ECEE5}">
+          <x14:formula1>
+            <xm:f>dropdowns!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>V24:X24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{438A3F20-DCBE-4A8B-B8CD-EDC8F5696F79}">
+          <x14:formula1>
+            <xm:f>dropdowns!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B2636A4-45DB-49AD-BC40-0FA6CDC6D04D}">
+          <x14:formula1>
+            <xm:f>dropdowns!$G$2:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCDBF6E2-3A6A-4BF0-A0B5-15AD7FD151C7}">
+          <x14:formula1>
+            <xm:f>dropdowns!$H$2:$H$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCA56204-BF9C-4496-96F0-8A66AFC0E553}">
+          <x14:formula1>
+            <xm:f>dropdowns!$I$2:$I$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CB3CD61-7335-470B-ABFF-34E3BB486A24}">
+          <x14:formula1>
+            <xm:f>dropdowns!$J$2:$J$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI24:AJ24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1D1E73A8-C8F3-4944-84CF-FE17A5A9E49A}">
+          <x14:formula1>
+            <xm:f>dropdowns!$D$9:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>AQ24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F6ED778-86BB-407B-8D66-ABFCFF734EF6}">
+          <x14:formula1>
+            <xm:f>dropdowns!$E$9:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>AR24 AU24:AV24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD18BA1E-FAD9-408D-A2EE-FA2F5E084ABC}">
+          <x14:formula1>
+            <xm:f>dropdowns!$F$9:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>AS24 AW24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC12F32F-BFAF-497F-BC5A-FB523379356A}">
+          <x14:formula1>
+            <xm:f>dropdowns!$G$9:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>AT24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{558FBC9A-1177-48E7-8A18-5FD867269D92}">
+          <x14:formula1>
+            <xm:f>dropdowns!$H$9:$H$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>CE24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D55BF825-878F-4031-B25D-C923BA57AA42}">
+          <x14:formula1>
+            <xm:f>dropdowns!$I$9:$I$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>CF24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C3D1132-A462-473B-BB11-9D5B9450F295}">
+          <x14:formula1>
+            <xm:f>dropdowns!$J$9:$J$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>CG24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C1475048-C1B9-47C9-86C1-9618A7B48A8B}">
+          <x14:formula1>
+            <xm:f>dropdowns!$D$17:$D$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>CM24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7E64A16-FAB2-4C42-89DF-699CF5F6B54C}">
+          <x14:formula1>
+            <xm:f>dropdowns!$E$17:$E$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>DO24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40B0EAC2-1ED1-4B5D-8301-41E9851DA057}">
+          <x14:formula1>
+            <xm:f>dropdowns!$F$17:$F$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>FY24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{337A823D-4943-45B0-B7AB-B2967D462162}">
+          <x14:formula1>
+            <xm:f>dropdowns!$G$17:$G$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>GB24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C9BE9D0-E284-48F3-A6F3-F021D21A37A7}">
+          <x14:formula1>
+            <xm:f>dropdowns!$H$17:$H$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>GC24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2575A087-5B4E-4D3F-975D-1DA9DC0F9E06}">
+          <x14:formula1>
+            <xm:f>dropdowns!$I$17:$I$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>GG24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A4377767-9EDF-4EF7-88F4-927BBF653619}">
+          <x14:formula1>
+            <xm:f>dropdowns!$J$17:$J$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>GO24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DE0E480-7F03-4FBF-AEC6-80F99339968F}">
+          <x14:formula1>
+            <xm:f>dropdowns!$D$26:$D$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>GP24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F751EC7E-F860-49CF-8F52-F686FF29CBE9}">
+          <x14:formula1>
+            <xm:f>dropdowns!$E$26:$E$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>GQ24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C99B383-A162-4118-A808-D0F0CEA8FC58}">
+          <x14:formula1>
+            <xm:f>dropdowns!$F$26:$F$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>GR24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CD25488-A56C-4A19-B41D-75A4E77D2560}">
+          <x14:formula1>
+            <xm:f>dropdowns!$G$26:$G$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>GS24</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -4838,1763 +5509,2375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B65828-125E-4611-A541-4BC9FAE77045}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:U322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.21875" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>735</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="25" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="B7" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="C8" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>743</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="C9" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.8">
+      <c r="A10" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="C10" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="C11" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="C12" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="C13" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="E14" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="C15" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="C16" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>782</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.2">
+      <c r="A17" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="C17" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.2">
+      <c r="A18" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="C18" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.2">
+      <c r="A19" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="D19" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="42">
+      <c r="A20" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="C20" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.2">
+      <c r="A21" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="C21" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="G21" t="s">
+        <v>798</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="C22" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="C23" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="C25" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>818</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="28.2">
+      <c r="A26" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="C26" t="s">
+        <v>697</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="42">
+      <c r="A27" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="C27" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="42">
+      <c r="A28" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="C28" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>830</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="42">
+      <c r="A29" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B29" s="25" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="D29" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="42">
+      <c r="A30" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="C30" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="C31" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="C32" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="C34" s="28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="C35" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="C36" s="26" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="C37" s="26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="C38" s="26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="C39" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="C41" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="C42" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="C43" s="26" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B44" s="25" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="C44" s="26" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B45" s="25" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="C45" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B46" s="25" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B47" s="25" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="C47" s="28" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="C48" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="C49" s="26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
+      <c r="C50" s="26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+      <c r="C51" s="26" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="25" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="25" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="25" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="25" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="26" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="25" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="26" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="25" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="26" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="25" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="25" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="25" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="26" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="25" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="25" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="25" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="25" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="25" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="25" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="25" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="25" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="25" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="25" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="26" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="25" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+    <row r="94" spans="1:1">
+      <c r="A94" s="25" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="26" t="s">
+    <row r="95" spans="1:1">
+      <c r="A95" s="25" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="25" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="25" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="25" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="26" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="25" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
+    <row r="100" spans="1:1">
+      <c r="A100" s="25" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
+    <row r="101" spans="1:1">
+      <c r="A101" s="25" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" s="25" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="25" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="26" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="25" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="26" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" s="25" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="25" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="25" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="25" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="26" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="25" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="26" t="s">
+    <row r="116" spans="1:1">
+      <c r="A116" s="25" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="26" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="25" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="26" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="26" t="s">
+    <row r="121" spans="1:1">
+      <c r="A121" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="26" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="25" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="25" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="26" t="s">
+    <row r="125" spans="1:1">
+      <c r="A125" s="25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="25" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="26" t="s">
+    <row r="128" spans="1:1">
+      <c r="A128" s="25" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="26" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="25" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="25" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="25" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="25" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26" t="s">
+    <row r="133" spans="1:1">
+      <c r="A133" s="25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="26" t="s">
+    <row r="134" spans="1:1">
+      <c r="A134" s="25" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="26" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="26" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" s="25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="26" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="25" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="26" t="s">
+    <row r="138" spans="1:1">
+      <c r="A138" s="25" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="26" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="25" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="26" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="25" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="26" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="26" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="25" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="26" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="26" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="25" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="26" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="25" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="26" t="s">
+    <row r="146" spans="1:1">
+      <c r="A146" s="25" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="26" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="25" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="26" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="25" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="26" t="s">
+    <row r="149" spans="1:1">
+      <c r="A149" s="25" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="26" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="25" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="25" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="26" t="s">
+    <row r="152" spans="1:1">
+      <c r="A152" s="25" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="26" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="25" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="26" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="25" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="25" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="26" t="s">
+    <row r="156" spans="1:1">
+      <c r="A156" s="25" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="26" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="25" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="26" t="s">
+    <row r="158" spans="1:1">
+      <c r="A158" s="25" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="26" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="25" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="26" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="25" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="26" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="25" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="26" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="25" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="26" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="25" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="26" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="26" t="s">
+    <row r="166" spans="1:1">
+      <c r="A166" s="25" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="26" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="25" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="26" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="25" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="26" t="s">
+    <row r="169" spans="1:1">
+      <c r="A169" s="25" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="26" t="s">
+    <row r="170" spans="1:1">
+      <c r="A170" s="25" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="26" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="25" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="26" t="s">
+    <row r="172" spans="1:1">
+      <c r="A172" s="25" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="26" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="25" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="26" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="25" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="26" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="25" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="26" t="s">
+    <row r="176" spans="1:1">
+      <c r="A176" s="25" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="26" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" s="25" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="26" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" s="25" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="26" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" s="25" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="26" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="25" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="26" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" s="25" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="26" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="25" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="26" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" s="25" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="26" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="25" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="26" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" s="25" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="26" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" s="25" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="26" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" s="25" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="26" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" s="25" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="26" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" s="25" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="26" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" s="25" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="26" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" s="25" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="26" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" s="25" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="26" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="25" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="26" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="25" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="26" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" s="25" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="26" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" s="25" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="26" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="25" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="26" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="25" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="26" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" s="25" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" s="25" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="26" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" s="25" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="26" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" s="25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="26" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="25" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="26" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="26" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" s="25" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="26" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="26" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="25" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="26" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" s="25" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="26" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="25" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="26" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="25" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="26" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" s="25" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="26" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" s="25" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="26" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" s="25" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="26" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="26" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" s="25" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="26" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" s="25" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="26" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" s="25" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="26" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="25" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="26" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="25" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="26" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" s="25" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="26" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" s="25" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="26" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" s="25" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="26" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" s="25" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="26" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" s="25" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="26" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" s="25" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="26" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="25" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="26" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" s="25" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="26" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" s="25" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="26" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" s="25" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="26" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" s="25" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="26" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="25" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="26" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="25" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="26" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" s="25" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="26" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" s="25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="26" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="26" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="25" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="26" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="25" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="26" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="25" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="26" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="25" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="26" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="25" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="26" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" s="25" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="26" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" s="25" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="26" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" s="25" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="26" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" s="25" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="26" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" s="25" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="26" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" s="25" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="26" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="25" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="26" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" s="25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="26" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="26" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="26" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="25" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="26" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="25" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="26" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="25" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="26" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="25" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="26" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="25" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="26" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="25" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="26" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" s="25" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="26" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="25" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="26" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="25" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="26" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" s="25" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="26" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" s="25" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="26" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" s="25" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="26" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" s="25" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="26" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" s="25" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="26" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" s="25" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="26" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" s="25" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="26" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" s="25" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="26" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" s="25" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="26" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="25" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="26" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" s="25" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="26" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" s="25" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="26" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" s="25" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="26" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" s="25" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="26" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" s="25" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="26" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" s="25" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="26" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" s="25" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="26" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" s="25" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="26" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" s="25" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="26" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" s="25" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="26" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="25" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="26" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" s="25" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="26" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" s="25" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="26" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" s="25" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="26" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="25" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="26" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="25" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="26" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" s="25" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="26" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" s="25" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="26" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" s="25" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="26" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" s="25" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="26" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="25" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="26" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="25" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="26" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="25" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="26" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="25" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="26" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="25" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="26" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" s="25" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="26" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="25" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="26" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="25" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="26" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="25" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="26" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="25" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="26" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="25" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="26" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="25" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="26" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="25" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="26" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="25" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="26" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="25" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="26" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="25" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="26" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="25" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="26" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="25" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="26" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="25" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="26" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="25" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="26" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="25" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="26" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="25" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="26" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="25" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="26" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="25" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="26" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="25" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="26" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="25" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="26" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="25" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="26" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="25" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="26" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="25" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="26" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="25" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="26" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="25" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="26" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="25" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="26" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="25" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="26" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="26" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="26" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="26" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="26" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760AD32-0CE2-4C77-BA6B-973E01888970}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45B3DB-8789-494C-A112-FB3FB022F55F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3642,7 +3642,7 @@
   <dimension ref="A1:ID115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+      <selection activeCell="D115" sqref="D115:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45B3DB-8789-494C-A112-FB3FB022F55F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8851937C-6A23-42AD-9889-A6DA60A8D06C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14517" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14539" uniqueCount="945">
   <si>
     <t>LoginTest</t>
   </si>
@@ -3016,6 +3016,21 @@
   </si>
   <si>
     <t>videos</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <t>downloads</t>
+  </si>
+  <si>
+    <t>TC56</t>
   </si>
 </sst>
 </file>
@@ -3639,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ID115"/>
+  <dimension ref="A1:ID123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115:E115"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -43024,7 +43039,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="108" spans="1:238" ht="72">
+    <row r="108" spans="1:238" ht="57.6">
       <c r="A108" s="25" t="s">
         <v>17</v>
       </c>
@@ -45912,10 +45927,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="35" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>938</v>
@@ -45924,6 +45939,84 @@
         <v>5</v>
       </c>
       <c r="E115" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="34" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="35" t="s">
+        <v>941</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="34" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="19" t="s">
         <v>6</v>
       </c>
     </row>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8851937C-6A23-42AD-9889-A6DA60A8D06C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1F8CF-D769-4B67-BC84-97BF18B5A214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31275" yWindow="1110" windowWidth="25455" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:ID123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -45969,7 +45969,7 @@
         <v>941</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>938</v>
@@ -46008,7 +46008,7 @@
         <v>944</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>938</v>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A1F8CF-D769-4B67-BC84-97BF18B5A214}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040009D-FBAB-4796-8D04-D77B1463D1D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31275" yWindow="1110" windowWidth="25455" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:ID123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -45930,7 +45930,7 @@
         <v>940</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>938</v>
@@ -45969,7 +45969,7 @@
         <v>941</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>938</v>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040009D-FBAB-4796-8D04-D77B1463D1D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF49C6-6576-4A2B-828E-3B7E0B69C9C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31275" yWindow="1110" windowWidth="25455" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:ID123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -45969,7 +45969,7 @@
         <v>941</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>938</v>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF49C6-6576-4A2B-828E-3B7E0B69C9C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3C40B-B734-40A3-B736-BC850F47235D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="1110" windowWidth="25455" windowHeight="11670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14539" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14552" uniqueCount="951">
   <si>
     <t>LoginTest</t>
   </si>
@@ -3031,6 +3031,24 @@
   </si>
   <si>
     <t>TC56</t>
+  </si>
+  <si>
+    <t>LearnAndEarn</t>
+  </si>
+  <si>
+    <t>learnandearn</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>Verify that, all article links are working fine</t>
+  </si>
+  <si>
+    <t>Verify that, all video download are working fine</t>
+  </si>
+  <si>
+    <t>Verify that, all learn and earn links are working fine</t>
   </si>
 </sst>
 </file>
@@ -3541,7 +3559,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3588,12 +3606,16 @@
         <v>937</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3"/>
@@ -3654,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:ID123"/>
+  <dimension ref="A1:ID127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -45930,7 +45952,7 @@
         <v>940</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>938</v>
@@ -45969,10 +45991,10 @@
         <v>941</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>5</v>
@@ -46011,12 +46033,51 @@
         <v>8</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E123" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="34" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="19" t="s">
         <v>6</v>
       </c>
     </row>

--- a/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
+++ b/meschino/src/main/java/com/qa/meschino/testdata/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB3C40B-B734-40A3-B736-BC850F47235D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0578FA38-A092-4FEF-B881-9DB94C0CDC9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58560" yWindow="1140" windowWidth="21360" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suits" sheetId="2" r:id="rId1"/>
@@ -3211,7 +3211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3274,6 +3274,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -3559,7 +3560,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3590,7 +3591,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3613,8 +3614,8 @@
       <c r="A6" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3678,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ID127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4133,8 +4134,8 @@
       <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>8</v>
+      <c r="B12" s="36" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>43</v>
@@ -45952,7 +45953,7 @@
         <v>940</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>938</v>
@@ -45991,7 +45992,7 @@
         <v>941</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>948</v>
@@ -46030,7 +46031,7 @@
         <v>944</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>949</v>
@@ -46069,7 +46070,7 @@
         <v>947</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>950</v>
